--- a/工作项目进度表.xlsx
+++ b/工作项目进度表.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -338,7 +338,16 @@
     <t>学习依赖注入技术</t>
   </si>
   <si>
-    <t>论述面向对象设计技术</t>
+    <t>后期改进</t>
+  </si>
+  <si>
+    <t>github项目维护</t>
+  </si>
+  <si>
+    <t>每周会议</t>
+  </si>
+  <si>
+    <t>项目注解</t>
   </si>
   <si>
     <t>图表参数设置</t>
@@ -2052,10 +2061,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3468,7 +3477,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4612005" y="2035810"/>
+        <a:off x="4389755" y="2035810"/>
         <a:ext cx="4658995" cy="1499235"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3499,7 +3508,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9335770" y="2020570"/>
+          <a:off x="9113520" y="2020570"/>
           <a:ext cx="2576830" cy="1442720"/>
           <a:chOff x="15108" y="3140"/>
           <a:chExt cx="3986" cy="2236"/>
@@ -6802,17 +6811,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:DO236"/>
+  <dimension ref="A1:ES236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="N117" sqref="N117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="EI151" sqref="EI151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="1.89090909090909" style="5" customWidth="1"/>
     <col min="2" max="2" width="4.78181818181818" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.2909090909091" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.1090909090909" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.5545454545455" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.8909090909091" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.4" style="7" customWidth="1"/>
@@ -6884,7 +6893,33 @@
     <col min="117" max="117" width="4.49090909090909" style="9" customWidth="1"/>
     <col min="118" max="118" width="4.59090909090909" style="9" customWidth="1"/>
     <col min="119" max="119" width="3.95454545454545" style="9" customWidth="1"/>
-    <col min="120" max="16384" width="9" style="9"/>
+    <col min="120" max="120" width="5.45454545454545" style="9" customWidth="1"/>
+    <col min="121" max="122" width="4.28181818181818" style="9" customWidth="1"/>
+    <col min="123" max="123" width="4.49090909090909" style="9" customWidth="1"/>
+    <col min="124" max="124" width="4.39090909090909" style="9" customWidth="1"/>
+    <col min="125" max="125" width="4.17272727272727" style="9" customWidth="1"/>
+    <col min="126" max="126" width="4.06363636363636" style="9" customWidth="1"/>
+    <col min="127" max="127" width="4.6" style="9" customWidth="1"/>
+    <col min="128" max="128" width="4.17272727272727" style="9" customWidth="1"/>
+    <col min="129" max="129" width="5.34545454545455" style="9" customWidth="1"/>
+    <col min="130" max="132" width="4.49090909090909" style="9" customWidth="1"/>
+    <col min="133" max="134" width="4.38181818181818" style="9" customWidth="1"/>
+    <col min="135" max="135" width="4.17272727272727" style="9" customWidth="1"/>
+    <col min="136" max="136" width="4.27272727272727" style="9" customWidth="1"/>
+    <col min="137" max="137" width="4.48181818181818" style="9" customWidth="1"/>
+    <col min="138" max="138" width="3.85454545454545" style="9" customWidth="1"/>
+    <col min="139" max="139" width="4.06363636363636" style="9" customWidth="1"/>
+    <col min="140" max="140" width="4.27272727272727" style="9" customWidth="1"/>
+    <col min="141" max="141" width="4.38181818181818" style="9" customWidth="1"/>
+    <col min="142" max="142" width="3.85454545454545" style="9" customWidth="1"/>
+    <col min="143" max="143" width="4.38181818181818" style="9" customWidth="1"/>
+    <col min="144" max="144" width="4.59090909090909" style="9" customWidth="1"/>
+    <col min="145" max="145" width="3.95454545454545" style="9" customWidth="1"/>
+    <col min="146" max="146" width="4.05454545454545" style="9" customWidth="1"/>
+    <col min="147" max="147" width="4.27272727272727" style="9" customWidth="1"/>
+    <col min="148" max="148" width="4.17272727272727" style="9" customWidth="1"/>
+    <col min="149" max="149" width="3.84545454545455" style="9" customWidth="1"/>
+    <col min="150" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="9" customHeight="1" spans="1:49">
@@ -7116,12 +7151,12 @@
       <c r="A4" s="10"/>
       <c r="B4" s="18">
         <f>COUNTA(C15:C2008)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="20">
         <f>COUNTIF(D15:D2008,"完成")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
@@ -7161,7 +7196,7 @@
       <c r="AE4" s="84"/>
       <c r="AF4" s="85">
         <f ca="1">NOW()</f>
-        <v>45439.7235185185</v>
+        <v>45461.4707523148</v>
       </c>
       <c r="AG4" s="85"/>
       <c r="AH4" s="85"/>
@@ -7359,17 +7394,17 @@
       <c r="AH7" s="88" t="str">
         <v/>
       </c>
-      <c r="AI7" s="88">
-        <v>45413</v>
-      </c>
-      <c r="AJ7" s="88">
-        <v>45414</v>
-      </c>
-      <c r="AK7" s="88">
-        <v>45415</v>
+      <c r="AI7" s="88" t="str">
+        <v/>
+      </c>
+      <c r="AJ7" s="88" t="str">
+        <v/>
+      </c>
+      <c r="AK7" s="88" t="str">
+        <v/>
       </c>
       <c r="AL7" s="88">
-        <v>45416</v>
+        <v>45444</v>
       </c>
       <c r="AM7" s="88"/>
       <c r="AN7" s="88"/>
@@ -7418,25 +7453,25 @@
       <c r="AD8" s="65"/>
       <c r="AE8" s="86"/>
       <c r="AF8" s="88">
-        <v>45417</v>
+        <v>45445</v>
       </c>
       <c r="AG8" s="88">
-        <v>45418</v>
+        <v>45446</v>
       </c>
       <c r="AH8" s="88">
-        <v>45419</v>
+        <v>45447</v>
       </c>
       <c r="AI8" s="88">
-        <v>45420</v>
+        <v>45448</v>
       </c>
       <c r="AJ8" s="88">
-        <v>45421</v>
+        <v>45449</v>
       </c>
       <c r="AK8" s="88">
-        <v>45422</v>
+        <v>45450</v>
       </c>
       <c r="AL8" s="88">
-        <v>45423</v>
+        <v>45451</v>
       </c>
       <c r="AM8" s="88"/>
       <c r="AN8" s="88"/>
@@ -7463,11 +7498,11 @@
       <c r="H9" s="42"/>
       <c r="I9" s="61">
         <f>B4</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J9" s="61">
         <f>D4</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K9" s="65">
         <f>G4</f>
@@ -7500,25 +7535,25 @@
       <c r="AD9" s="65"/>
       <c r="AE9" s="86"/>
       <c r="AF9" s="88">
-        <v>45424</v>
+        <v>45452</v>
       </c>
       <c r="AG9" s="88">
-        <v>45425</v>
+        <v>45453</v>
       </c>
       <c r="AH9" s="88">
-        <v>45426</v>
+        <v>45454</v>
       </c>
       <c r="AI9" s="88">
-        <v>45427</v>
+        <v>45455</v>
       </c>
       <c r="AJ9" s="88">
-        <v>45428</v>
+        <v>45456</v>
       </c>
       <c r="AK9" s="88">
-        <v>45429</v>
+        <v>45457</v>
       </c>
       <c r="AL9" s="88">
-        <v>45430</v>
+        <v>45458</v>
       </c>
       <c r="AM9" s="88"/>
       <c r="AN9" s="88"/>
@@ -7582,25 +7617,25 @@
       <c r="AD10" s="65"/>
       <c r="AE10" s="86"/>
       <c r="AF10" s="88">
-        <v>45431</v>
+        <v>45459</v>
       </c>
       <c r="AG10" s="88">
-        <v>45432</v>
+        <v>45460</v>
       </c>
       <c r="AH10" s="88">
-        <v>45433</v>
+        <v>45461</v>
       </c>
       <c r="AI10" s="88">
-        <v>45434</v>
+        <v>45462</v>
       </c>
       <c r="AJ10" s="88">
-        <v>45435</v>
+        <v>45463</v>
       </c>
       <c r="AK10" s="88">
-        <v>45436</v>
+        <v>45464</v>
       </c>
       <c r="AL10" s="88">
-        <v>45437</v>
+        <v>45465</v>
       </c>
       <c r="AM10" s="88"/>
       <c r="AN10" s="88"/>
@@ -7649,25 +7684,25 @@
       <c r="AD11" s="65"/>
       <c r="AE11" s="86"/>
       <c r="AF11" s="88">
-        <v>45438</v>
+        <v>45466</v>
       </c>
       <c r="AG11" s="88">
-        <v>45439</v>
+        <v>45467</v>
       </c>
       <c r="AH11" s="88">
-        <v>45440</v>
+        <v>45468</v>
       </c>
       <c r="AI11" s="88">
-        <v>45441</v>
+        <v>45469</v>
       </c>
       <c r="AJ11" s="88">
-        <v>45442</v>
+        <v>45470</v>
       </c>
       <c r="AK11" s="88">
-        <v>45443</v>
-      </c>
-      <c r="AL11" s="88" t="str">
-        <v/>
+        <v>45471</v>
+      </c>
+      <c r="AL11" s="88">
+        <v>45472</v>
       </c>
       <c r="AM11" s="88"/>
       <c r="AN11" s="88"/>
@@ -7715,8 +7750,8 @@
       <c r="AC12" s="65"/>
       <c r="AD12" s="65"/>
       <c r="AE12" s="86"/>
-      <c r="AF12" s="88" t="str">
-        <v/>
+      <c r="AF12" s="88">
+        <v>45473</v>
       </c>
       <c r="AG12" s="88" t="str">
         <v/>
@@ -7801,7 +7836,7 @@
       <c r="AV13" s="71"/>
       <c r="BA13" s="94"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="28.95" customHeight="1" spans="1:119">
+    <row r="14" s="1" customFormat="1" ht="28.95" customHeight="1" spans="1:149">
       <c r="A14" s="45"/>
       <c r="B14" s="46" t="s">
         <v>24</v>
@@ -8181,7 +8216,7 @@
         <v>45443</v>
       </c>
       <c r="CT14" s="72">
-        <f t="shared" ref="CT14:DO14" si="3">CS14+1</f>
+        <f t="shared" ref="CT14:DR14" si="3">CS14+1</f>
         <v>45444</v>
       </c>
       <c r="CU14" s="72">
@@ -8267,6 +8302,126 @@
       <c r="DO14" s="72">
         <f t="shared" si="3"/>
         <v>45465</v>
+      </c>
+      <c r="DP14" s="72">
+        <f t="shared" si="3"/>
+        <v>45466</v>
+      </c>
+      <c r="DQ14" s="72">
+        <f t="shared" si="3"/>
+        <v>45467</v>
+      </c>
+      <c r="DR14" s="72">
+        <f t="shared" si="3"/>
+        <v>45468</v>
+      </c>
+      <c r="DS14" s="72">
+        <f t="shared" ref="DS14:EH14" si="4">DR14+1</f>
+        <v>45469</v>
+      </c>
+      <c r="DT14" s="72">
+        <f t="shared" si="4"/>
+        <v>45470</v>
+      </c>
+      <c r="DU14" s="72">
+        <f t="shared" si="4"/>
+        <v>45471</v>
+      </c>
+      <c r="DV14" s="72">
+        <f t="shared" si="4"/>
+        <v>45472</v>
+      </c>
+      <c r="DW14" s="72">
+        <f t="shared" si="4"/>
+        <v>45473</v>
+      </c>
+      <c r="DX14" s="72">
+        <f t="shared" si="4"/>
+        <v>45474</v>
+      </c>
+      <c r="DY14" s="72">
+        <f t="shared" si="4"/>
+        <v>45475</v>
+      </c>
+      <c r="DZ14" s="72">
+        <f t="shared" si="4"/>
+        <v>45476</v>
+      </c>
+      <c r="EA14" s="72">
+        <f t="shared" si="4"/>
+        <v>45477</v>
+      </c>
+      <c r="EB14" s="72">
+        <f t="shared" si="4"/>
+        <v>45478</v>
+      </c>
+      <c r="EC14" s="72">
+        <f t="shared" si="4"/>
+        <v>45479</v>
+      </c>
+      <c r="ED14" s="72">
+        <f t="shared" si="4"/>
+        <v>45480</v>
+      </c>
+      <c r="EE14" s="72">
+        <f t="shared" si="4"/>
+        <v>45481</v>
+      </c>
+      <c r="EF14" s="72">
+        <f t="shared" si="4"/>
+        <v>45482</v>
+      </c>
+      <c r="EG14" s="72">
+        <f t="shared" si="4"/>
+        <v>45483</v>
+      </c>
+      <c r="EH14" s="72">
+        <f t="shared" si="4"/>
+        <v>45484</v>
+      </c>
+      <c r="EI14" s="72">
+        <f t="shared" ref="EI14:ES14" si="5">EH14+1</f>
+        <v>45485</v>
+      </c>
+      <c r="EJ14" s="72">
+        <f t="shared" si="5"/>
+        <v>45486</v>
+      </c>
+      <c r="EK14" s="72">
+        <f t="shared" si="5"/>
+        <v>45487</v>
+      </c>
+      <c r="EL14" s="72">
+        <f t="shared" si="5"/>
+        <v>45488</v>
+      </c>
+      <c r="EM14" s="72">
+        <f t="shared" si="5"/>
+        <v>45489</v>
+      </c>
+      <c r="EN14" s="72">
+        <f t="shared" si="5"/>
+        <v>45490</v>
+      </c>
+      <c r="EO14" s="72">
+        <f t="shared" si="5"/>
+        <v>45491</v>
+      </c>
+      <c r="EP14" s="72">
+        <f t="shared" si="5"/>
+        <v>45492</v>
+      </c>
+      <c r="EQ14" s="72">
+        <f t="shared" si="5"/>
+        <v>45493</v>
+      </c>
+      <c r="ER14" s="72">
+        <f t="shared" si="5"/>
+        <v>45494</v>
+      </c>
+      <c r="ES14" s="72">
+        <f t="shared" si="5"/>
+        <v>45495</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="6" customHeight="1" spans="1:119">
@@ -21697,7 +21852,7 @@
       <c r="DN122" s="98"/>
       <c r="DO122" s="98"/>
     </row>
-    <row r="123" s="1" customFormat="1" ht="6" customHeight="1" spans="1:49">
+    <row r="123" s="1" customFormat="1" ht="6" customHeight="1" spans="1:139">
       <c r="A123" s="45"/>
       <c r="B123" s="48">
         <v>19</v>
@@ -21713,14 +21868,14 @@
         <v>32</v>
       </c>
       <c r="F123" s="50">
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="G123" s="50">
-        <v>45439</v>
+        <v>45459</v>
       </c>
       <c r="H123" s="49">
         <f>IF(G123="","-",G123-F123+1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I123" s="73"/>
       <c r="J123" s="73"/>
@@ -21762,9 +21917,99 @@
       <c r="AT123" s="73"/>
       <c r="AU123" s="73"/>
       <c r="AV123" s="73"/>
-      <c r="AW123" s="95"/>
-    </row>
-    <row r="124" ht="10.05" customHeight="1" spans="2:49">
+      <c r="AW123" s="73"/>
+      <c r="AX123" s="73"/>
+      <c r="AY123" s="73"/>
+      <c r="AZ123" s="73"/>
+      <c r="BA123" s="73"/>
+      <c r="BB123" s="73"/>
+      <c r="BC123" s="73"/>
+      <c r="BD123" s="73"/>
+      <c r="BE123" s="73"/>
+      <c r="BF123" s="73"/>
+      <c r="BG123" s="73"/>
+      <c r="BH123" s="73"/>
+      <c r="BI123" s="73"/>
+      <c r="BJ123" s="73"/>
+      <c r="BK123" s="73"/>
+      <c r="BL123" s="73"/>
+      <c r="BM123" s="73"/>
+      <c r="BN123" s="73"/>
+      <c r="BO123" s="73"/>
+      <c r="BP123" s="73"/>
+      <c r="BQ123" s="73"/>
+      <c r="BR123" s="73"/>
+      <c r="BS123" s="73"/>
+      <c r="BT123" s="73"/>
+      <c r="BU123" s="73"/>
+      <c r="BV123" s="73"/>
+      <c r="BW123" s="73"/>
+      <c r="BX123" s="73"/>
+      <c r="BY123" s="73"/>
+      <c r="BZ123" s="73"/>
+      <c r="CA123" s="73"/>
+      <c r="CB123" s="73"/>
+      <c r="CC123" s="73"/>
+      <c r="CD123" s="73"/>
+      <c r="CE123" s="73"/>
+      <c r="CF123" s="73"/>
+      <c r="CG123" s="73"/>
+      <c r="CH123" s="73"/>
+      <c r="CI123" s="73"/>
+      <c r="CJ123" s="73"/>
+      <c r="CK123" s="73"/>
+      <c r="CL123" s="73"/>
+      <c r="CM123" s="73"/>
+      <c r="CN123" s="73"/>
+      <c r="CO123" s="73"/>
+      <c r="CP123" s="73"/>
+      <c r="CQ123" s="73"/>
+      <c r="CR123" s="73"/>
+      <c r="CS123" s="73"/>
+      <c r="CT123" s="73"/>
+      <c r="CU123" s="73"/>
+      <c r="CV123" s="73"/>
+      <c r="CW123" s="73"/>
+      <c r="CX123" s="73"/>
+      <c r="CY123" s="73"/>
+      <c r="CZ123" s="73"/>
+      <c r="DA123" s="73"/>
+      <c r="DB123" s="73"/>
+      <c r="DC123" s="73"/>
+      <c r="DD123" s="73"/>
+      <c r="DE123" s="73"/>
+      <c r="DF123" s="73"/>
+      <c r="DG123" s="73"/>
+      <c r="DH123" s="73"/>
+      <c r="DI123" s="73"/>
+      <c r="DJ123" s="73"/>
+      <c r="DK123" s="73"/>
+      <c r="DL123" s="73"/>
+      <c r="DM123" s="73"/>
+      <c r="DN123" s="73"/>
+      <c r="DO123" s="73"/>
+      <c r="DP123" s="73"/>
+      <c r="DQ123" s="73"/>
+      <c r="DR123" s="73"/>
+      <c r="DS123" s="73"/>
+      <c r="DT123" s="73"/>
+      <c r="DU123" s="73"/>
+      <c r="DV123" s="73"/>
+      <c r="DW123" s="73"/>
+      <c r="DX123" s="73"/>
+      <c r="DY123" s="73"/>
+      <c r="DZ123" s="73"/>
+      <c r="EA123" s="73"/>
+      <c r="EB123" s="73"/>
+      <c r="EC123" s="73"/>
+      <c r="ED123" s="73"/>
+      <c r="EE123" s="73"/>
+      <c r="EF123" s="73"/>
+      <c r="EG123" s="73"/>
+      <c r="EH123" s="73"/>
+      <c r="EI123" s="73"/>
+    </row>
+    <row r="124" ht="10.05" customHeight="1" spans="2:139">
       <c r="B124" s="48"/>
       <c r="C124" s="51"/>
       <c r="D124" s="51"/>
@@ -21812,9 +22057,99 @@
       <c r="AT124" s="74"/>
       <c r="AU124" s="74"/>
       <c r="AV124" s="74"/>
-      <c r="AW124" s="96"/>
-    </row>
-    <row r="125" ht="6" customHeight="1" spans="2:49">
+      <c r="AW124" s="74"/>
+      <c r="AX124" s="74"/>
+      <c r="AY124" s="74"/>
+      <c r="AZ124" s="74"/>
+      <c r="BA124" s="74"/>
+      <c r="BB124" s="74"/>
+      <c r="BC124" s="74"/>
+      <c r="BD124" s="74"/>
+      <c r="BE124" s="74"/>
+      <c r="BF124" s="74"/>
+      <c r="BG124" s="74"/>
+      <c r="BH124" s="74"/>
+      <c r="BI124" s="74"/>
+      <c r="BJ124" s="74"/>
+      <c r="BK124" s="74"/>
+      <c r="BL124" s="74"/>
+      <c r="BM124" s="74"/>
+      <c r="BN124" s="74"/>
+      <c r="BO124" s="74"/>
+      <c r="BP124" s="74"/>
+      <c r="BQ124" s="74"/>
+      <c r="BR124" s="74"/>
+      <c r="BS124" s="74"/>
+      <c r="BT124" s="74"/>
+      <c r="BU124" s="74"/>
+      <c r="BV124" s="74"/>
+      <c r="BW124" s="74"/>
+      <c r="BX124" s="74"/>
+      <c r="BY124" s="74"/>
+      <c r="BZ124" s="74"/>
+      <c r="CA124" s="74"/>
+      <c r="CB124" s="74"/>
+      <c r="CC124" s="74"/>
+      <c r="CD124" s="74"/>
+      <c r="CE124" s="74"/>
+      <c r="CF124" s="74"/>
+      <c r="CG124" s="74"/>
+      <c r="CH124" s="74"/>
+      <c r="CI124" s="74"/>
+      <c r="CJ124" s="74"/>
+      <c r="CK124" s="74"/>
+      <c r="CL124" s="74"/>
+      <c r="CM124" s="74"/>
+      <c r="CN124" s="74"/>
+      <c r="CO124" s="74"/>
+      <c r="CP124" s="74"/>
+      <c r="CQ124" s="74"/>
+      <c r="CR124" s="74"/>
+      <c r="CS124" s="74"/>
+      <c r="CT124" s="74"/>
+      <c r="CU124" s="74"/>
+      <c r="CV124" s="74"/>
+      <c r="CW124" s="74"/>
+      <c r="CX124" s="74"/>
+      <c r="CY124" s="74"/>
+      <c r="CZ124" s="74"/>
+      <c r="DA124" s="74"/>
+      <c r="DB124" s="74"/>
+      <c r="DC124" s="74"/>
+      <c r="DD124" s="74"/>
+      <c r="DE124" s="74"/>
+      <c r="DF124" s="74"/>
+      <c r="DG124" s="74"/>
+      <c r="DH124" s="74"/>
+      <c r="DI124" s="74"/>
+      <c r="DJ124" s="74"/>
+      <c r="DK124" s="74"/>
+      <c r="DL124" s="74"/>
+      <c r="DM124" s="74"/>
+      <c r="DN124" s="74"/>
+      <c r="DO124" s="74"/>
+      <c r="DP124" s="74"/>
+      <c r="DQ124" s="74"/>
+      <c r="DR124" s="74"/>
+      <c r="DS124" s="74"/>
+      <c r="DT124" s="74"/>
+      <c r="DU124" s="74"/>
+      <c r="DV124" s="74"/>
+      <c r="DW124" s="74"/>
+      <c r="DX124" s="74"/>
+      <c r="DY124" s="74"/>
+      <c r="DZ124" s="74"/>
+      <c r="EA124" s="74"/>
+      <c r="EB124" s="74"/>
+      <c r="EC124" s="74"/>
+      <c r="ED124" s="74"/>
+      <c r="EE124" s="74"/>
+      <c r="EF124" s="74"/>
+      <c r="EG124" s="74"/>
+      <c r="EH124" s="74"/>
+      <c r="EI124" s="74"/>
+    </row>
+    <row r="125" ht="6" customHeight="1" spans="2:139">
       <c r="B125" s="48"/>
       <c r="C125" s="51"/>
       <c r="D125" s="51"/>
@@ -21862,9 +22197,99 @@
       <c r="AT125" s="75"/>
       <c r="AU125" s="75"/>
       <c r="AV125" s="75"/>
-      <c r="AW125" s="97"/>
-    </row>
-    <row r="126" ht="6" customHeight="1" spans="2:49">
+      <c r="AW125" s="75"/>
+      <c r="AX125" s="75"/>
+      <c r="AY125" s="75"/>
+      <c r="AZ125" s="75"/>
+      <c r="BA125" s="75"/>
+      <c r="BB125" s="75"/>
+      <c r="BC125" s="75"/>
+      <c r="BD125" s="75"/>
+      <c r="BE125" s="75"/>
+      <c r="BF125" s="75"/>
+      <c r="BG125" s="75"/>
+      <c r="BH125" s="75"/>
+      <c r="BI125" s="75"/>
+      <c r="BJ125" s="75"/>
+      <c r="BK125" s="75"/>
+      <c r="BL125" s="75"/>
+      <c r="BM125" s="75"/>
+      <c r="BN125" s="75"/>
+      <c r="BO125" s="75"/>
+      <c r="BP125" s="75"/>
+      <c r="BQ125" s="75"/>
+      <c r="BR125" s="75"/>
+      <c r="BS125" s="75"/>
+      <c r="BT125" s="75"/>
+      <c r="BU125" s="75"/>
+      <c r="BV125" s="75"/>
+      <c r="BW125" s="75"/>
+      <c r="BX125" s="75"/>
+      <c r="BY125" s="75"/>
+      <c r="BZ125" s="75"/>
+      <c r="CA125" s="75"/>
+      <c r="CB125" s="75"/>
+      <c r="CC125" s="75"/>
+      <c r="CD125" s="75"/>
+      <c r="CE125" s="75"/>
+      <c r="CF125" s="75"/>
+      <c r="CG125" s="75"/>
+      <c r="CH125" s="75"/>
+      <c r="CI125" s="75"/>
+      <c r="CJ125" s="75"/>
+      <c r="CK125" s="75"/>
+      <c r="CL125" s="75"/>
+      <c r="CM125" s="75"/>
+      <c r="CN125" s="75"/>
+      <c r="CO125" s="75"/>
+      <c r="CP125" s="75"/>
+      <c r="CQ125" s="75"/>
+      <c r="CR125" s="75"/>
+      <c r="CS125" s="75"/>
+      <c r="CT125" s="75"/>
+      <c r="CU125" s="75"/>
+      <c r="CV125" s="75"/>
+      <c r="CW125" s="75"/>
+      <c r="CX125" s="75"/>
+      <c r="CY125" s="75"/>
+      <c r="CZ125" s="75"/>
+      <c r="DA125" s="75"/>
+      <c r="DB125" s="75"/>
+      <c r="DC125" s="75"/>
+      <c r="DD125" s="75"/>
+      <c r="DE125" s="75"/>
+      <c r="DF125" s="75"/>
+      <c r="DG125" s="75"/>
+      <c r="DH125" s="75"/>
+      <c r="DI125" s="75"/>
+      <c r="DJ125" s="75"/>
+      <c r="DK125" s="75"/>
+      <c r="DL125" s="75"/>
+      <c r="DM125" s="75"/>
+      <c r="DN125" s="75"/>
+      <c r="DO125" s="75"/>
+      <c r="DP125" s="75"/>
+      <c r="DQ125" s="75"/>
+      <c r="DR125" s="75"/>
+      <c r="DS125" s="75"/>
+      <c r="DT125" s="75"/>
+      <c r="DU125" s="75"/>
+      <c r="DV125" s="75"/>
+      <c r="DW125" s="75"/>
+      <c r="DX125" s="75"/>
+      <c r="DY125" s="75"/>
+      <c r="DZ125" s="75"/>
+      <c r="EA125" s="75"/>
+      <c r="EB125" s="75"/>
+      <c r="EC125" s="75"/>
+      <c r="ED125" s="75"/>
+      <c r="EE125" s="75"/>
+      <c r="EF125" s="75"/>
+      <c r="EG125" s="75"/>
+      <c r="EH125" s="75"/>
+      <c r="EI125" s="75"/>
+    </row>
+    <row r="126" ht="6" customHeight="1" spans="2:139">
       <c r="B126" s="48"/>
       <c r="C126" s="51"/>
       <c r="D126" s="51"/>
@@ -21872,14 +22297,14 @@
         <v>33</v>
       </c>
       <c r="F126" s="52">
-        <v>45439</v>
+        <v>45454</v>
       </c>
       <c r="G126" s="52">
-        <v>45439</v>
+        <v>45459</v>
       </c>
       <c r="H126" s="51">
         <f>IF(G126="","-",G126-F126+1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I126" s="74"/>
       <c r="J126" s="74"/>
@@ -21921,9 +22346,99 @@
       <c r="AT126" s="74"/>
       <c r="AU126" s="74"/>
       <c r="AV126" s="74"/>
-      <c r="AW126" s="96"/>
-    </row>
-    <row r="127" ht="10.05" customHeight="1" spans="2:49">
+      <c r="AW126" s="74"/>
+      <c r="AX126" s="74"/>
+      <c r="AY126" s="74"/>
+      <c r="AZ126" s="74"/>
+      <c r="BA126" s="74"/>
+      <c r="BB126" s="74"/>
+      <c r="BC126" s="74"/>
+      <c r="BD126" s="74"/>
+      <c r="BE126" s="74"/>
+      <c r="BF126" s="74"/>
+      <c r="BG126" s="74"/>
+      <c r="BH126" s="74"/>
+      <c r="BI126" s="74"/>
+      <c r="BJ126" s="74"/>
+      <c r="BK126" s="74"/>
+      <c r="BL126" s="74"/>
+      <c r="BM126" s="74"/>
+      <c r="BN126" s="74"/>
+      <c r="BO126" s="74"/>
+      <c r="BP126" s="74"/>
+      <c r="BQ126" s="74"/>
+      <c r="BR126" s="74"/>
+      <c r="BS126" s="74"/>
+      <c r="BT126" s="74"/>
+      <c r="BU126" s="74"/>
+      <c r="BV126" s="74"/>
+      <c r="BW126" s="74"/>
+      <c r="BX126" s="74"/>
+      <c r="BY126" s="74"/>
+      <c r="BZ126" s="74"/>
+      <c r="CA126" s="74"/>
+      <c r="CB126" s="74"/>
+      <c r="CC126" s="74"/>
+      <c r="CD126" s="74"/>
+      <c r="CE126" s="74"/>
+      <c r="CF126" s="74"/>
+      <c r="CG126" s="74"/>
+      <c r="CH126" s="74"/>
+      <c r="CI126" s="74"/>
+      <c r="CJ126" s="74"/>
+      <c r="CK126" s="74"/>
+      <c r="CL126" s="74"/>
+      <c r="CM126" s="74"/>
+      <c r="CN126" s="74"/>
+      <c r="CO126" s="74"/>
+      <c r="CP126" s="74"/>
+      <c r="CQ126" s="74"/>
+      <c r="CR126" s="74"/>
+      <c r="CS126" s="74"/>
+      <c r="CT126" s="74"/>
+      <c r="CU126" s="74"/>
+      <c r="CV126" s="74"/>
+      <c r="CW126" s="74"/>
+      <c r="CX126" s="74"/>
+      <c r="CY126" s="74"/>
+      <c r="CZ126" s="74"/>
+      <c r="DA126" s="74"/>
+      <c r="DB126" s="74"/>
+      <c r="DC126" s="74"/>
+      <c r="DD126" s="74"/>
+      <c r="DE126" s="74"/>
+      <c r="DF126" s="74"/>
+      <c r="DG126" s="74"/>
+      <c r="DH126" s="74"/>
+      <c r="DI126" s="74"/>
+      <c r="DJ126" s="74"/>
+      <c r="DK126" s="74"/>
+      <c r="DL126" s="74"/>
+      <c r="DM126" s="74"/>
+      <c r="DN126" s="74"/>
+      <c r="DO126" s="74"/>
+      <c r="DP126" s="74"/>
+      <c r="DQ126" s="74"/>
+      <c r="DR126" s="74"/>
+      <c r="DS126" s="74"/>
+      <c r="DT126" s="74"/>
+      <c r="DU126" s="74"/>
+      <c r="DV126" s="74"/>
+      <c r="DW126" s="74"/>
+      <c r="DX126" s="74"/>
+      <c r="DY126" s="74"/>
+      <c r="DZ126" s="74"/>
+      <c r="EA126" s="74"/>
+      <c r="EB126" s="74"/>
+      <c r="EC126" s="74"/>
+      <c r="ED126" s="74"/>
+      <c r="EE126" s="74"/>
+      <c r="EF126" s="74"/>
+      <c r="EG126" s="74"/>
+      <c r="EH126" s="74"/>
+      <c r="EI126" s="74"/>
+    </row>
+    <row r="127" ht="10.05" customHeight="1" spans="2:139">
       <c r="B127" s="48"/>
       <c r="C127" s="51"/>
       <c r="D127" s="51"/>
@@ -21971,9 +22486,99 @@
       <c r="AT127" s="74"/>
       <c r="AU127" s="74"/>
       <c r="AV127" s="74"/>
-      <c r="AW127" s="96"/>
-    </row>
-    <row r="128" ht="6" customHeight="1" spans="2:49">
+      <c r="AW127" s="74"/>
+      <c r="AX127" s="74"/>
+      <c r="AY127" s="74"/>
+      <c r="AZ127" s="74"/>
+      <c r="BA127" s="74"/>
+      <c r="BB127" s="74"/>
+      <c r="BC127" s="74"/>
+      <c r="BD127" s="74"/>
+      <c r="BE127" s="74"/>
+      <c r="BF127" s="74"/>
+      <c r="BG127" s="74"/>
+      <c r="BH127" s="74"/>
+      <c r="BI127" s="74"/>
+      <c r="BJ127" s="74"/>
+      <c r="BK127" s="74"/>
+      <c r="BL127" s="74"/>
+      <c r="BM127" s="74"/>
+      <c r="BN127" s="74"/>
+      <c r="BO127" s="74"/>
+      <c r="BP127" s="74"/>
+      <c r="BQ127" s="74"/>
+      <c r="BR127" s="74"/>
+      <c r="BS127" s="74"/>
+      <c r="BT127" s="74"/>
+      <c r="BU127" s="74"/>
+      <c r="BV127" s="74"/>
+      <c r="BW127" s="74"/>
+      <c r="BX127" s="74"/>
+      <c r="BY127" s="74"/>
+      <c r="BZ127" s="74"/>
+      <c r="CA127" s="74"/>
+      <c r="CB127" s="74"/>
+      <c r="CC127" s="74"/>
+      <c r="CD127" s="74"/>
+      <c r="CE127" s="74"/>
+      <c r="CF127" s="74"/>
+      <c r="CG127" s="74"/>
+      <c r="CH127" s="74"/>
+      <c r="CI127" s="74"/>
+      <c r="CJ127" s="74"/>
+      <c r="CK127" s="74"/>
+      <c r="CL127" s="74"/>
+      <c r="CM127" s="74"/>
+      <c r="CN127" s="74"/>
+      <c r="CO127" s="74"/>
+      <c r="CP127" s="74"/>
+      <c r="CQ127" s="74"/>
+      <c r="CR127" s="74"/>
+      <c r="CS127" s="74"/>
+      <c r="CT127" s="74"/>
+      <c r="CU127" s="74"/>
+      <c r="CV127" s="74"/>
+      <c r="CW127" s="74"/>
+      <c r="CX127" s="74"/>
+      <c r="CY127" s="74"/>
+      <c r="CZ127" s="74"/>
+      <c r="DA127" s="74"/>
+      <c r="DB127" s="74"/>
+      <c r="DC127" s="74"/>
+      <c r="DD127" s="74"/>
+      <c r="DE127" s="74"/>
+      <c r="DF127" s="74"/>
+      <c r="DG127" s="74"/>
+      <c r="DH127" s="74"/>
+      <c r="DI127" s="74"/>
+      <c r="DJ127" s="74"/>
+      <c r="DK127" s="74"/>
+      <c r="DL127" s="74"/>
+      <c r="DM127" s="74"/>
+      <c r="DN127" s="74"/>
+      <c r="DO127" s="74"/>
+      <c r="DP127" s="74"/>
+      <c r="DQ127" s="74"/>
+      <c r="DR127" s="74"/>
+      <c r="DS127" s="74"/>
+      <c r="DT127" s="74"/>
+      <c r="DU127" s="74"/>
+      <c r="DV127" s="74"/>
+      <c r="DW127" s="74"/>
+      <c r="DX127" s="74"/>
+      <c r="DY127" s="74"/>
+      <c r="DZ127" s="74"/>
+      <c r="EA127" s="74"/>
+      <c r="EB127" s="74"/>
+      <c r="EC127" s="74"/>
+      <c r="ED127" s="74"/>
+      <c r="EE127" s="74"/>
+      <c r="EF127" s="74"/>
+      <c r="EG127" s="74"/>
+      <c r="EH127" s="74"/>
+      <c r="EI127" s="74"/>
+    </row>
+    <row r="128" ht="6" customHeight="1" spans="2:139">
       <c r="B128" s="55"/>
       <c r="C128" s="56"/>
       <c r="D128" s="56"/>
@@ -22021,26 +22626,122 @@
       <c r="AT128" s="76"/>
       <c r="AU128" s="76"/>
       <c r="AV128" s="76"/>
-      <c r="AW128" s="98"/>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="6" customHeight="1" spans="1:49">
+      <c r="AW128" s="76"/>
+      <c r="AX128" s="76"/>
+      <c r="AY128" s="76"/>
+      <c r="AZ128" s="76"/>
+      <c r="BA128" s="76"/>
+      <c r="BB128" s="76"/>
+      <c r="BC128" s="76"/>
+      <c r="BD128" s="76"/>
+      <c r="BE128" s="76"/>
+      <c r="BF128" s="76"/>
+      <c r="BG128" s="76"/>
+      <c r="BH128" s="76"/>
+      <c r="BI128" s="76"/>
+      <c r="BJ128" s="76"/>
+      <c r="BK128" s="76"/>
+      <c r="BL128" s="76"/>
+      <c r="BM128" s="76"/>
+      <c r="BN128" s="76"/>
+      <c r="BO128" s="76"/>
+      <c r="BP128" s="76"/>
+      <c r="BQ128" s="76"/>
+      <c r="BR128" s="76"/>
+      <c r="BS128" s="76"/>
+      <c r="BT128" s="76"/>
+      <c r="BU128" s="76"/>
+      <c r="BV128" s="76"/>
+      <c r="BW128" s="76"/>
+      <c r="BX128" s="76"/>
+      <c r="BY128" s="76"/>
+      <c r="BZ128" s="76"/>
+      <c r="CA128" s="76"/>
+      <c r="CB128" s="76"/>
+      <c r="CC128" s="76"/>
+      <c r="CD128" s="76"/>
+      <c r="CE128" s="76"/>
+      <c r="CF128" s="76"/>
+      <c r="CG128" s="76"/>
+      <c r="CH128" s="76"/>
+      <c r="CI128" s="76"/>
+      <c r="CJ128" s="76"/>
+      <c r="CK128" s="76"/>
+      <c r="CL128" s="76"/>
+      <c r="CM128" s="76"/>
+      <c r="CN128" s="76"/>
+      <c r="CO128" s="76"/>
+      <c r="CP128" s="76"/>
+      <c r="CQ128" s="76"/>
+      <c r="CR128" s="76"/>
+      <c r="CS128" s="76"/>
+      <c r="CT128" s="76"/>
+      <c r="CU128" s="76"/>
+      <c r="CV128" s="76"/>
+      <c r="CW128" s="76"/>
+      <c r="CX128" s="76"/>
+      <c r="CY128" s="76"/>
+      <c r="CZ128" s="76"/>
+      <c r="DA128" s="76"/>
+      <c r="DB128" s="76"/>
+      <c r="DC128" s="76"/>
+      <c r="DD128" s="76"/>
+      <c r="DE128" s="76"/>
+      <c r="DF128" s="76"/>
+      <c r="DG128" s="76"/>
+      <c r="DH128" s="76"/>
+      <c r="DI128" s="76"/>
+      <c r="DJ128" s="76"/>
+      <c r="DK128" s="76"/>
+      <c r="DL128" s="76"/>
+      <c r="DM128" s="76"/>
+      <c r="DN128" s="76"/>
+      <c r="DO128" s="76"/>
+      <c r="DP128" s="76"/>
+      <c r="DQ128" s="76"/>
+      <c r="DR128" s="76"/>
+      <c r="DS128" s="76"/>
+      <c r="DT128" s="76"/>
+      <c r="DU128" s="76"/>
+      <c r="DV128" s="76"/>
+      <c r="DW128" s="76"/>
+      <c r="DX128" s="76"/>
+      <c r="DY128" s="76"/>
+      <c r="DZ128" s="76"/>
+      <c r="EA128" s="76"/>
+      <c r="EB128" s="76"/>
+      <c r="EC128" s="76"/>
+      <c r="ED128" s="76"/>
+      <c r="EE128" s="76"/>
+      <c r="EF128" s="76"/>
+      <c r="EG128" s="76"/>
+      <c r="EH128" s="76"/>
+      <c r="EI128" s="76"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="6" customHeight="1" spans="1:139">
       <c r="A129" s="45"/>
       <c r="B129" s="48">
         <v>20</v>
       </c>
-      <c r="C129" s="49"/>
+      <c r="C129" s="49" t="s">
+        <v>52</v>
+      </c>
       <c r="D129" s="49" t="str">
         <f>IF(C129="","-",IF(G132&lt;&gt;"","完成",IF(F132&lt;&gt;"","进行中","未开始")))</f>
-        <v>-</v>
+        <v>完成</v>
       </c>
       <c r="E129" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F129" s="50"/>
-      <c r="G129" s="50"/>
-      <c r="H129" s="49" t="str">
+      <c r="F129" s="50">
+        <v>45402</v>
+      </c>
+      <c r="G129" s="50">
+        <v>45458</v>
+      </c>
+      <c r="H129" s="49">
         <f>IF(G129="","-",G129-F129+1)</f>
-        <v>-</v>
+        <v>57</v>
       </c>
       <c r="I129" s="73"/>
       <c r="J129" s="73"/>
@@ -22082,9 +22783,99 @@
       <c r="AT129" s="73"/>
       <c r="AU129" s="73"/>
       <c r="AV129" s="73"/>
-      <c r="AW129" s="95"/>
-    </row>
-    <row r="130" ht="10.05" customHeight="1" spans="2:49">
+      <c r="AW129" s="73"/>
+      <c r="AX129" s="73"/>
+      <c r="AY129" s="73"/>
+      <c r="AZ129" s="73"/>
+      <c r="BA129" s="73"/>
+      <c r="BB129" s="73"/>
+      <c r="BC129" s="73"/>
+      <c r="BD129" s="73"/>
+      <c r="BE129" s="73"/>
+      <c r="BF129" s="73"/>
+      <c r="BG129" s="73"/>
+      <c r="BH129" s="73"/>
+      <c r="BI129" s="73"/>
+      <c r="BJ129" s="73"/>
+      <c r="BK129" s="73"/>
+      <c r="BL129" s="73"/>
+      <c r="BM129" s="73"/>
+      <c r="BN129" s="73"/>
+      <c r="BO129" s="73"/>
+      <c r="BP129" s="73"/>
+      <c r="BQ129" s="73"/>
+      <c r="BR129" s="73"/>
+      <c r="BS129" s="73"/>
+      <c r="BT129" s="73"/>
+      <c r="BU129" s="73"/>
+      <c r="BV129" s="73"/>
+      <c r="BW129" s="73"/>
+      <c r="BX129" s="73"/>
+      <c r="BY129" s="73"/>
+      <c r="BZ129" s="73"/>
+      <c r="CA129" s="73"/>
+      <c r="CB129" s="73"/>
+      <c r="CC129" s="73"/>
+      <c r="CD129" s="73"/>
+      <c r="CE129" s="73"/>
+      <c r="CF129" s="73"/>
+      <c r="CG129" s="73"/>
+      <c r="CH129" s="73"/>
+      <c r="CI129" s="73"/>
+      <c r="CJ129" s="73"/>
+      <c r="CK129" s="73"/>
+      <c r="CL129" s="73"/>
+      <c r="CM129" s="73"/>
+      <c r="CN129" s="73"/>
+      <c r="CO129" s="73"/>
+      <c r="CP129" s="73"/>
+      <c r="CQ129" s="73"/>
+      <c r="CR129" s="73"/>
+      <c r="CS129" s="73"/>
+      <c r="CT129" s="73"/>
+      <c r="CU129" s="73"/>
+      <c r="CV129" s="73"/>
+      <c r="CW129" s="73"/>
+      <c r="CX129" s="73"/>
+      <c r="CY129" s="73"/>
+      <c r="CZ129" s="73"/>
+      <c r="DA129" s="73"/>
+      <c r="DB129" s="73"/>
+      <c r="DC129" s="73"/>
+      <c r="DD129" s="73"/>
+      <c r="DE129" s="73"/>
+      <c r="DF129" s="73"/>
+      <c r="DG129" s="73"/>
+      <c r="DH129" s="73"/>
+      <c r="DI129" s="73"/>
+      <c r="DJ129" s="73"/>
+      <c r="DK129" s="73"/>
+      <c r="DL129" s="73"/>
+      <c r="DM129" s="73"/>
+      <c r="DN129" s="73"/>
+      <c r="DO129" s="73"/>
+      <c r="DP129" s="73"/>
+      <c r="DQ129" s="73"/>
+      <c r="DR129" s="73"/>
+      <c r="DS129" s="73"/>
+      <c r="DT129" s="73"/>
+      <c r="DU129" s="73"/>
+      <c r="DV129" s="73"/>
+      <c r="DW129" s="73"/>
+      <c r="DX129" s="73"/>
+      <c r="DY129" s="73"/>
+      <c r="DZ129" s="73"/>
+      <c r="EA129" s="73"/>
+      <c r="EB129" s="73"/>
+      <c r="EC129" s="73"/>
+      <c r="ED129" s="73"/>
+      <c r="EE129" s="73"/>
+      <c r="EF129" s="73"/>
+      <c r="EG129" s="73"/>
+      <c r="EH129" s="73"/>
+      <c r="EI129" s="73"/>
+    </row>
+    <row r="130" ht="10.05" customHeight="1" spans="2:139">
       <c r="B130" s="48"/>
       <c r="C130" s="51"/>
       <c r="D130" s="51"/>
@@ -22132,9 +22923,99 @@
       <c r="AT130" s="74"/>
       <c r="AU130" s="74"/>
       <c r="AV130" s="74"/>
-      <c r="AW130" s="96"/>
-    </row>
-    <row r="131" ht="6" customHeight="1" spans="2:49">
+      <c r="AW130" s="74"/>
+      <c r="AX130" s="74"/>
+      <c r="AY130" s="74"/>
+      <c r="AZ130" s="74"/>
+      <c r="BA130" s="74"/>
+      <c r="BB130" s="74"/>
+      <c r="BC130" s="74"/>
+      <c r="BD130" s="74"/>
+      <c r="BE130" s="74"/>
+      <c r="BF130" s="74"/>
+      <c r="BG130" s="74"/>
+      <c r="BH130" s="74"/>
+      <c r="BI130" s="74"/>
+      <c r="BJ130" s="74"/>
+      <c r="BK130" s="74"/>
+      <c r="BL130" s="74"/>
+      <c r="BM130" s="74"/>
+      <c r="BN130" s="74"/>
+      <c r="BO130" s="74"/>
+      <c r="BP130" s="74"/>
+      <c r="BQ130" s="74"/>
+      <c r="BR130" s="74"/>
+      <c r="BS130" s="74"/>
+      <c r="BT130" s="74"/>
+      <c r="BU130" s="74"/>
+      <c r="BV130" s="74"/>
+      <c r="BW130" s="74"/>
+      <c r="BX130" s="74"/>
+      <c r="BY130" s="74"/>
+      <c r="BZ130" s="74"/>
+      <c r="CA130" s="74"/>
+      <c r="CB130" s="74"/>
+      <c r="CC130" s="74"/>
+      <c r="CD130" s="74"/>
+      <c r="CE130" s="74"/>
+      <c r="CF130" s="74"/>
+      <c r="CG130" s="74"/>
+      <c r="CH130" s="74"/>
+      <c r="CI130" s="74"/>
+      <c r="CJ130" s="74"/>
+      <c r="CK130" s="74"/>
+      <c r="CL130" s="74"/>
+      <c r="CM130" s="74"/>
+      <c r="CN130" s="74"/>
+      <c r="CO130" s="74"/>
+      <c r="CP130" s="74"/>
+      <c r="CQ130" s="74"/>
+      <c r="CR130" s="74"/>
+      <c r="CS130" s="74"/>
+      <c r="CT130" s="74"/>
+      <c r="CU130" s="74"/>
+      <c r="CV130" s="74"/>
+      <c r="CW130" s="74"/>
+      <c r="CX130" s="74"/>
+      <c r="CY130" s="74"/>
+      <c r="CZ130" s="74"/>
+      <c r="DA130" s="74"/>
+      <c r="DB130" s="74"/>
+      <c r="DC130" s="74"/>
+      <c r="DD130" s="74"/>
+      <c r="DE130" s="74"/>
+      <c r="DF130" s="74"/>
+      <c r="DG130" s="74"/>
+      <c r="DH130" s="74"/>
+      <c r="DI130" s="74"/>
+      <c r="DJ130" s="74"/>
+      <c r="DK130" s="74"/>
+      <c r="DL130" s="74"/>
+      <c r="DM130" s="74"/>
+      <c r="DN130" s="74"/>
+      <c r="DO130" s="74"/>
+      <c r="DP130" s="74"/>
+      <c r="DQ130" s="74"/>
+      <c r="DR130" s="74"/>
+      <c r="DS130" s="74"/>
+      <c r="DT130" s="74"/>
+      <c r="DU130" s="74"/>
+      <c r="DV130" s="74"/>
+      <c r="DW130" s="74"/>
+      <c r="DX130" s="74"/>
+      <c r="DY130" s="74"/>
+      <c r="DZ130" s="74"/>
+      <c r="EA130" s="74"/>
+      <c r="EB130" s="74"/>
+      <c r="EC130" s="74"/>
+      <c r="ED130" s="74"/>
+      <c r="EE130" s="74"/>
+      <c r="EF130" s="74"/>
+      <c r="EG130" s="74"/>
+      <c r="EH130" s="74"/>
+      <c r="EI130" s="74"/>
+    </row>
+    <row r="131" ht="6" customHeight="1" spans="2:139">
       <c r="B131" s="48"/>
       <c r="C131" s="51"/>
       <c r="D131" s="51"/>
@@ -22182,20 +23063,114 @@
       <c r="AT131" s="75"/>
       <c r="AU131" s="75"/>
       <c r="AV131" s="75"/>
-      <c r="AW131" s="97"/>
-    </row>
-    <row r="132" ht="6" customHeight="1" spans="2:49">
+      <c r="AW131" s="75"/>
+      <c r="AX131" s="75"/>
+      <c r="AY131" s="75"/>
+      <c r="AZ131" s="75"/>
+      <c r="BA131" s="75"/>
+      <c r="BB131" s="75"/>
+      <c r="BC131" s="75"/>
+      <c r="BD131" s="75"/>
+      <c r="BE131" s="75"/>
+      <c r="BF131" s="75"/>
+      <c r="BG131" s="75"/>
+      <c r="BH131" s="75"/>
+      <c r="BI131" s="75"/>
+      <c r="BJ131" s="75"/>
+      <c r="BK131" s="75"/>
+      <c r="BL131" s="75"/>
+      <c r="BM131" s="75"/>
+      <c r="BN131" s="75"/>
+      <c r="BO131" s="75"/>
+      <c r="BP131" s="75"/>
+      <c r="BQ131" s="75"/>
+      <c r="BR131" s="75"/>
+      <c r="BS131" s="75"/>
+      <c r="BT131" s="75"/>
+      <c r="BU131" s="75"/>
+      <c r="BV131" s="75"/>
+      <c r="BW131" s="75"/>
+      <c r="BX131" s="75"/>
+      <c r="BY131" s="75"/>
+      <c r="BZ131" s="75"/>
+      <c r="CA131" s="75"/>
+      <c r="CB131" s="75"/>
+      <c r="CC131" s="75"/>
+      <c r="CD131" s="75"/>
+      <c r="CE131" s="75"/>
+      <c r="CF131" s="75"/>
+      <c r="CG131" s="75"/>
+      <c r="CH131" s="75"/>
+      <c r="CI131" s="75"/>
+      <c r="CJ131" s="75"/>
+      <c r="CK131" s="75"/>
+      <c r="CL131" s="75"/>
+      <c r="CM131" s="75"/>
+      <c r="CN131" s="75"/>
+      <c r="CO131" s="75"/>
+      <c r="CP131" s="75"/>
+      <c r="CQ131" s="75"/>
+      <c r="CR131" s="75"/>
+      <c r="CS131" s="75"/>
+      <c r="CT131" s="75"/>
+      <c r="CU131" s="75"/>
+      <c r="CV131" s="75"/>
+      <c r="CW131" s="75"/>
+      <c r="CX131" s="75"/>
+      <c r="CY131" s="75"/>
+      <c r="CZ131" s="75"/>
+      <c r="DA131" s="75"/>
+      <c r="DB131" s="75"/>
+      <c r="DC131" s="75"/>
+      <c r="DD131" s="75"/>
+      <c r="DE131" s="75"/>
+      <c r="DF131" s="75"/>
+      <c r="DG131" s="75"/>
+      <c r="DH131" s="75"/>
+      <c r="DI131" s="75"/>
+      <c r="DJ131" s="75"/>
+      <c r="DK131" s="75"/>
+      <c r="DL131" s="75"/>
+      <c r="DM131" s="75"/>
+      <c r="DN131" s="75"/>
+      <c r="DO131" s="75"/>
+      <c r="DP131" s="75"/>
+      <c r="DQ131" s="75"/>
+      <c r="DR131" s="75"/>
+      <c r="DS131" s="75"/>
+      <c r="DT131" s="75"/>
+      <c r="DU131" s="75"/>
+      <c r="DV131" s="75"/>
+      <c r="DW131" s="75"/>
+      <c r="DX131" s="75"/>
+      <c r="DY131" s="75"/>
+      <c r="DZ131" s="75"/>
+      <c r="EA131" s="75"/>
+      <c r="EB131" s="75"/>
+      <c r="EC131" s="75"/>
+      <c r="ED131" s="75"/>
+      <c r="EE131" s="75"/>
+      <c r="EF131" s="75"/>
+      <c r="EG131" s="75"/>
+      <c r="EH131" s="75"/>
+      <c r="EI131" s="75"/>
+    </row>
+    <row r="132" ht="6" customHeight="1" spans="2:139">
       <c r="B132" s="48"/>
       <c r="C132" s="51"/>
       <c r="D132" s="51"/>
       <c r="E132" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F132" s="52"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="51" t="str">
+      <c r="F132" s="52">
+        <v>45402</v>
+      </c>
+      <c r="G132" s="52">
+        <v>45458</v>
+      </c>
+      <c r="H132" s="51">
         <f>IF(G132="","-",G132-F132+1)</f>
-        <v>-</v>
+        <v>57</v>
       </c>
       <c r="I132" s="74"/>
       <c r="J132" s="74"/>
@@ -22237,9 +23212,99 @@
       <c r="AT132" s="74"/>
       <c r="AU132" s="74"/>
       <c r="AV132" s="74"/>
-      <c r="AW132" s="96"/>
-    </row>
-    <row r="133" ht="10.05" customHeight="1" spans="2:49">
+      <c r="AW132" s="74"/>
+      <c r="AX132" s="74"/>
+      <c r="AY132" s="74"/>
+      <c r="AZ132" s="74"/>
+      <c r="BA132" s="74"/>
+      <c r="BB132" s="74"/>
+      <c r="BC132" s="74"/>
+      <c r="BD132" s="74"/>
+      <c r="BE132" s="74"/>
+      <c r="BF132" s="74"/>
+      <c r="BG132" s="74"/>
+      <c r="BH132" s="74"/>
+      <c r="BI132" s="74"/>
+      <c r="BJ132" s="74"/>
+      <c r="BK132" s="74"/>
+      <c r="BL132" s="74"/>
+      <c r="BM132" s="74"/>
+      <c r="BN132" s="74"/>
+      <c r="BO132" s="74"/>
+      <c r="BP132" s="74"/>
+      <c r="BQ132" s="74"/>
+      <c r="BR132" s="74"/>
+      <c r="BS132" s="74"/>
+      <c r="BT132" s="74"/>
+      <c r="BU132" s="74"/>
+      <c r="BV132" s="74"/>
+      <c r="BW132" s="74"/>
+      <c r="BX132" s="74"/>
+      <c r="BY132" s="74"/>
+      <c r="BZ132" s="74"/>
+      <c r="CA132" s="74"/>
+      <c r="CB132" s="74"/>
+      <c r="CC132" s="74"/>
+      <c r="CD132" s="74"/>
+      <c r="CE132" s="74"/>
+      <c r="CF132" s="74"/>
+      <c r="CG132" s="74"/>
+      <c r="CH132" s="74"/>
+      <c r="CI132" s="74"/>
+      <c r="CJ132" s="74"/>
+      <c r="CK132" s="74"/>
+      <c r="CL132" s="74"/>
+      <c r="CM132" s="74"/>
+      <c r="CN132" s="74"/>
+      <c r="CO132" s="74"/>
+      <c r="CP132" s="74"/>
+      <c r="CQ132" s="74"/>
+      <c r="CR132" s="74"/>
+      <c r="CS132" s="74"/>
+      <c r="CT132" s="74"/>
+      <c r="CU132" s="74"/>
+      <c r="CV132" s="74"/>
+      <c r="CW132" s="74"/>
+      <c r="CX132" s="74"/>
+      <c r="CY132" s="74"/>
+      <c r="CZ132" s="74"/>
+      <c r="DA132" s="74"/>
+      <c r="DB132" s="74"/>
+      <c r="DC132" s="74"/>
+      <c r="DD132" s="74"/>
+      <c r="DE132" s="74"/>
+      <c r="DF132" s="74"/>
+      <c r="DG132" s="74"/>
+      <c r="DH132" s="74"/>
+      <c r="DI132" s="74"/>
+      <c r="DJ132" s="74"/>
+      <c r="DK132" s="74"/>
+      <c r="DL132" s="74"/>
+      <c r="DM132" s="74"/>
+      <c r="DN132" s="74"/>
+      <c r="DO132" s="74"/>
+      <c r="DP132" s="74"/>
+      <c r="DQ132" s="74"/>
+      <c r="DR132" s="74"/>
+      <c r="DS132" s="74"/>
+      <c r="DT132" s="74"/>
+      <c r="DU132" s="74"/>
+      <c r="DV132" s="74"/>
+      <c r="DW132" s="74"/>
+      <c r="DX132" s="74"/>
+      <c r="DY132" s="74"/>
+      <c r="DZ132" s="74"/>
+      <c r="EA132" s="74"/>
+      <c r="EB132" s="74"/>
+      <c r="EC132" s="74"/>
+      <c r="ED132" s="74"/>
+      <c r="EE132" s="74"/>
+      <c r="EF132" s="74"/>
+      <c r="EG132" s="74"/>
+      <c r="EH132" s="74"/>
+      <c r="EI132" s="74"/>
+    </row>
+    <row r="133" ht="10.05" customHeight="1" spans="2:139">
       <c r="B133" s="48"/>
       <c r="C133" s="51"/>
       <c r="D133" s="51"/>
@@ -22287,9 +23352,99 @@
       <c r="AT133" s="74"/>
       <c r="AU133" s="74"/>
       <c r="AV133" s="74"/>
-      <c r="AW133" s="96"/>
-    </row>
-    <row r="134" ht="6" customHeight="1" spans="2:49">
+      <c r="AW133" s="74"/>
+      <c r="AX133" s="74"/>
+      <c r="AY133" s="74"/>
+      <c r="AZ133" s="74"/>
+      <c r="BA133" s="74"/>
+      <c r="BB133" s="74"/>
+      <c r="BC133" s="74"/>
+      <c r="BD133" s="74"/>
+      <c r="BE133" s="74"/>
+      <c r="BF133" s="74"/>
+      <c r="BG133" s="74"/>
+      <c r="BH133" s="74"/>
+      <c r="BI133" s="74"/>
+      <c r="BJ133" s="74"/>
+      <c r="BK133" s="74"/>
+      <c r="BL133" s="74"/>
+      <c r="BM133" s="74"/>
+      <c r="BN133" s="74"/>
+      <c r="BO133" s="74"/>
+      <c r="BP133" s="74"/>
+      <c r="BQ133" s="74"/>
+      <c r="BR133" s="74"/>
+      <c r="BS133" s="74"/>
+      <c r="BT133" s="74"/>
+      <c r="BU133" s="74"/>
+      <c r="BV133" s="74"/>
+      <c r="BW133" s="74"/>
+      <c r="BX133" s="74"/>
+      <c r="BY133" s="74"/>
+      <c r="BZ133" s="74"/>
+      <c r="CA133" s="74"/>
+      <c r="CB133" s="74"/>
+      <c r="CC133" s="74"/>
+      <c r="CD133" s="74"/>
+      <c r="CE133" s="74"/>
+      <c r="CF133" s="74"/>
+      <c r="CG133" s="74"/>
+      <c r="CH133" s="74"/>
+      <c r="CI133" s="74"/>
+      <c r="CJ133" s="74"/>
+      <c r="CK133" s="74"/>
+      <c r="CL133" s="74"/>
+      <c r="CM133" s="74"/>
+      <c r="CN133" s="74"/>
+      <c r="CO133" s="74"/>
+      <c r="CP133" s="74"/>
+      <c r="CQ133" s="74"/>
+      <c r="CR133" s="74"/>
+      <c r="CS133" s="74"/>
+      <c r="CT133" s="74"/>
+      <c r="CU133" s="74"/>
+      <c r="CV133" s="74"/>
+      <c r="CW133" s="74"/>
+      <c r="CX133" s="74"/>
+      <c r="CY133" s="74"/>
+      <c r="CZ133" s="74"/>
+      <c r="DA133" s="74"/>
+      <c r="DB133" s="74"/>
+      <c r="DC133" s="74"/>
+      <c r="DD133" s="74"/>
+      <c r="DE133" s="74"/>
+      <c r="DF133" s="74"/>
+      <c r="DG133" s="74"/>
+      <c r="DH133" s="74"/>
+      <c r="DI133" s="74"/>
+      <c r="DJ133" s="74"/>
+      <c r="DK133" s="74"/>
+      <c r="DL133" s="74"/>
+      <c r="DM133" s="74"/>
+      <c r="DN133" s="74"/>
+      <c r="DO133" s="74"/>
+      <c r="DP133" s="74"/>
+      <c r="DQ133" s="74"/>
+      <c r="DR133" s="74"/>
+      <c r="DS133" s="74"/>
+      <c r="DT133" s="74"/>
+      <c r="DU133" s="74"/>
+      <c r="DV133" s="74"/>
+      <c r="DW133" s="74"/>
+      <c r="DX133" s="74"/>
+      <c r="DY133" s="74"/>
+      <c r="DZ133" s="74"/>
+      <c r="EA133" s="74"/>
+      <c r="EB133" s="74"/>
+      <c r="EC133" s="74"/>
+      <c r="ED133" s="74"/>
+      <c r="EE133" s="74"/>
+      <c r="EF133" s="74"/>
+      <c r="EG133" s="74"/>
+      <c r="EH133" s="74"/>
+      <c r="EI133" s="74"/>
+    </row>
+    <row r="134" ht="6" customHeight="1" spans="2:139">
       <c r="B134" s="55"/>
       <c r="C134" s="56"/>
       <c r="D134" s="56"/>
@@ -22337,26 +23492,122 @@
       <c r="AT134" s="76"/>
       <c r="AU134" s="76"/>
       <c r="AV134" s="76"/>
-      <c r="AW134" s="98"/>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="6" customHeight="1" spans="1:49">
+      <c r="AW134" s="76"/>
+      <c r="AX134" s="76"/>
+      <c r="AY134" s="76"/>
+      <c r="AZ134" s="76"/>
+      <c r="BA134" s="76"/>
+      <c r="BB134" s="76"/>
+      <c r="BC134" s="76"/>
+      <c r="BD134" s="76"/>
+      <c r="BE134" s="76"/>
+      <c r="BF134" s="76"/>
+      <c r="BG134" s="76"/>
+      <c r="BH134" s="76"/>
+      <c r="BI134" s="76"/>
+      <c r="BJ134" s="76"/>
+      <c r="BK134" s="76"/>
+      <c r="BL134" s="76"/>
+      <c r="BM134" s="76"/>
+      <c r="BN134" s="76"/>
+      <c r="BO134" s="76"/>
+      <c r="BP134" s="76"/>
+      <c r="BQ134" s="76"/>
+      <c r="BR134" s="76"/>
+      <c r="BS134" s="76"/>
+      <c r="BT134" s="76"/>
+      <c r="BU134" s="76"/>
+      <c r="BV134" s="76"/>
+      <c r="BW134" s="76"/>
+      <c r="BX134" s="76"/>
+      <c r="BY134" s="76"/>
+      <c r="BZ134" s="76"/>
+      <c r="CA134" s="76"/>
+      <c r="CB134" s="76"/>
+      <c r="CC134" s="76"/>
+      <c r="CD134" s="76"/>
+      <c r="CE134" s="76"/>
+      <c r="CF134" s="76"/>
+      <c r="CG134" s="76"/>
+      <c r="CH134" s="76"/>
+      <c r="CI134" s="76"/>
+      <c r="CJ134" s="76"/>
+      <c r="CK134" s="76"/>
+      <c r="CL134" s="76"/>
+      <c r="CM134" s="76"/>
+      <c r="CN134" s="76"/>
+      <c r="CO134" s="76"/>
+      <c r="CP134" s="76"/>
+      <c r="CQ134" s="76"/>
+      <c r="CR134" s="76"/>
+      <c r="CS134" s="76"/>
+      <c r="CT134" s="76"/>
+      <c r="CU134" s="76"/>
+      <c r="CV134" s="76"/>
+      <c r="CW134" s="76"/>
+      <c r="CX134" s="76"/>
+      <c r="CY134" s="76"/>
+      <c r="CZ134" s="76"/>
+      <c r="DA134" s="76"/>
+      <c r="DB134" s="76"/>
+      <c r="DC134" s="76"/>
+      <c r="DD134" s="76"/>
+      <c r="DE134" s="76"/>
+      <c r="DF134" s="76"/>
+      <c r="DG134" s="76"/>
+      <c r="DH134" s="76"/>
+      <c r="DI134" s="76"/>
+      <c r="DJ134" s="76"/>
+      <c r="DK134" s="76"/>
+      <c r="DL134" s="76"/>
+      <c r="DM134" s="76"/>
+      <c r="DN134" s="76"/>
+      <c r="DO134" s="76"/>
+      <c r="DP134" s="76"/>
+      <c r="DQ134" s="76"/>
+      <c r="DR134" s="76"/>
+      <c r="DS134" s="76"/>
+      <c r="DT134" s="76"/>
+      <c r="DU134" s="76"/>
+      <c r="DV134" s="76"/>
+      <c r="DW134" s="76"/>
+      <c r="DX134" s="76"/>
+      <c r="DY134" s="76"/>
+      <c r="DZ134" s="76"/>
+      <c r="EA134" s="76"/>
+      <c r="EB134" s="76"/>
+      <c r="EC134" s="76"/>
+      <c r="ED134" s="76"/>
+      <c r="EE134" s="76"/>
+      <c r="EF134" s="76"/>
+      <c r="EG134" s="76"/>
+      <c r="EH134" s="76"/>
+      <c r="EI134" s="76"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="6" customHeight="1" spans="1:139">
       <c r="A135" s="45"/>
       <c r="B135" s="48">
         <v>21</v>
       </c>
-      <c r="C135" s="49"/>
+      <c r="C135" s="49" t="s">
+        <v>53</v>
+      </c>
       <c r="D135" s="49" t="str">
         <f>IF(C135="","-",IF(G138&lt;&gt;"","完成",IF(F138&lt;&gt;"","进行中","未开始")))</f>
-        <v>-</v>
+        <v>完成</v>
       </c>
       <c r="E135" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
-      <c r="H135" s="49" t="str">
+      <c r="F135" s="50">
+        <v>45402</v>
+      </c>
+      <c r="G135" s="50">
+        <v>45458</v>
+      </c>
+      <c r="H135" s="49">
         <f>IF(G135="","-",G135-F135+1)</f>
-        <v>-</v>
+        <v>57</v>
       </c>
       <c r="I135" s="73"/>
       <c r="J135" s="73"/>
@@ -22398,9 +23649,99 @@
       <c r="AT135" s="73"/>
       <c r="AU135" s="73"/>
       <c r="AV135" s="73"/>
-      <c r="AW135" s="95"/>
-    </row>
-    <row r="136" ht="10.05" customHeight="1" spans="2:49">
+      <c r="AW135" s="73"/>
+      <c r="AX135" s="73"/>
+      <c r="AY135" s="73"/>
+      <c r="AZ135" s="73"/>
+      <c r="BA135" s="73"/>
+      <c r="BB135" s="73"/>
+      <c r="BC135" s="73"/>
+      <c r="BD135" s="73"/>
+      <c r="BE135" s="73"/>
+      <c r="BF135" s="73"/>
+      <c r="BG135" s="73"/>
+      <c r="BH135" s="73"/>
+      <c r="BI135" s="73"/>
+      <c r="BJ135" s="73"/>
+      <c r="BK135" s="73"/>
+      <c r="BL135" s="73"/>
+      <c r="BM135" s="73"/>
+      <c r="BN135" s="73"/>
+      <c r="BO135" s="73"/>
+      <c r="BP135" s="73"/>
+      <c r="BQ135" s="73"/>
+      <c r="BR135" s="73"/>
+      <c r="BS135" s="73"/>
+      <c r="BT135" s="73"/>
+      <c r="BU135" s="73"/>
+      <c r="BV135" s="73"/>
+      <c r="BW135" s="73"/>
+      <c r="BX135" s="73"/>
+      <c r="BY135" s="73"/>
+      <c r="BZ135" s="73"/>
+      <c r="CA135" s="73"/>
+      <c r="CB135" s="73"/>
+      <c r="CC135" s="73"/>
+      <c r="CD135" s="73"/>
+      <c r="CE135" s="73"/>
+      <c r="CF135" s="73"/>
+      <c r="CG135" s="73"/>
+      <c r="CH135" s="73"/>
+      <c r="CI135" s="73"/>
+      <c r="CJ135" s="73"/>
+      <c r="CK135" s="73"/>
+      <c r="CL135" s="73"/>
+      <c r="CM135" s="73"/>
+      <c r="CN135" s="73"/>
+      <c r="CO135" s="73"/>
+      <c r="CP135" s="73"/>
+      <c r="CQ135" s="73"/>
+      <c r="CR135" s="73"/>
+      <c r="CS135" s="73"/>
+      <c r="CT135" s="73"/>
+      <c r="CU135" s="73"/>
+      <c r="CV135" s="73"/>
+      <c r="CW135" s="73"/>
+      <c r="CX135" s="73"/>
+      <c r="CY135" s="73"/>
+      <c r="CZ135" s="73"/>
+      <c r="DA135" s="73"/>
+      <c r="DB135" s="73"/>
+      <c r="DC135" s="73"/>
+      <c r="DD135" s="73"/>
+      <c r="DE135" s="73"/>
+      <c r="DF135" s="73"/>
+      <c r="DG135" s="73"/>
+      <c r="DH135" s="73"/>
+      <c r="DI135" s="73"/>
+      <c r="DJ135" s="73"/>
+      <c r="DK135" s="73"/>
+      <c r="DL135" s="73"/>
+      <c r="DM135" s="73"/>
+      <c r="DN135" s="73"/>
+      <c r="DO135" s="73"/>
+      <c r="DP135" s="73"/>
+      <c r="DQ135" s="73"/>
+      <c r="DR135" s="73"/>
+      <c r="DS135" s="73"/>
+      <c r="DT135" s="73"/>
+      <c r="DU135" s="73"/>
+      <c r="DV135" s="73"/>
+      <c r="DW135" s="73"/>
+      <c r="DX135" s="73"/>
+      <c r="DY135" s="73"/>
+      <c r="DZ135" s="73"/>
+      <c r="EA135" s="73"/>
+      <c r="EB135" s="73"/>
+      <c r="EC135" s="73"/>
+      <c r="ED135" s="73"/>
+      <c r="EE135" s="73"/>
+      <c r="EF135" s="73"/>
+      <c r="EG135" s="73"/>
+      <c r="EH135" s="73"/>
+      <c r="EI135" s="73"/>
+    </row>
+    <row r="136" ht="10.05" customHeight="1" spans="2:139">
       <c r="B136" s="48"/>
       <c r="C136" s="51"/>
       <c r="D136" s="51"/>
@@ -22448,9 +23789,99 @@
       <c r="AT136" s="74"/>
       <c r="AU136" s="74"/>
       <c r="AV136" s="74"/>
-      <c r="AW136" s="96"/>
-    </row>
-    <row r="137" ht="6" customHeight="1" spans="2:49">
+      <c r="AW136" s="74"/>
+      <c r="AX136" s="74"/>
+      <c r="AY136" s="74"/>
+      <c r="AZ136" s="74"/>
+      <c r="BA136" s="74"/>
+      <c r="BB136" s="74"/>
+      <c r="BC136" s="74"/>
+      <c r="BD136" s="74"/>
+      <c r="BE136" s="74"/>
+      <c r="BF136" s="74"/>
+      <c r="BG136" s="74"/>
+      <c r="BH136" s="74"/>
+      <c r="BI136" s="74"/>
+      <c r="BJ136" s="74"/>
+      <c r="BK136" s="74"/>
+      <c r="BL136" s="74"/>
+      <c r="BM136" s="74"/>
+      <c r="BN136" s="74"/>
+      <c r="BO136" s="74"/>
+      <c r="BP136" s="74"/>
+      <c r="BQ136" s="74"/>
+      <c r="BR136" s="74"/>
+      <c r="BS136" s="74"/>
+      <c r="BT136" s="74"/>
+      <c r="BU136" s="74"/>
+      <c r="BV136" s="74"/>
+      <c r="BW136" s="74"/>
+      <c r="BX136" s="74"/>
+      <c r="BY136" s="74"/>
+      <c r="BZ136" s="74"/>
+      <c r="CA136" s="74"/>
+      <c r="CB136" s="74"/>
+      <c r="CC136" s="74"/>
+      <c r="CD136" s="74"/>
+      <c r="CE136" s="74"/>
+      <c r="CF136" s="74"/>
+      <c r="CG136" s="74"/>
+      <c r="CH136" s="74"/>
+      <c r="CI136" s="74"/>
+      <c r="CJ136" s="74"/>
+      <c r="CK136" s="74"/>
+      <c r="CL136" s="74"/>
+      <c r="CM136" s="74"/>
+      <c r="CN136" s="74"/>
+      <c r="CO136" s="74"/>
+      <c r="CP136" s="74"/>
+      <c r="CQ136" s="74"/>
+      <c r="CR136" s="74"/>
+      <c r="CS136" s="74"/>
+      <c r="CT136" s="74"/>
+      <c r="CU136" s="74"/>
+      <c r="CV136" s="74"/>
+      <c r="CW136" s="74"/>
+      <c r="CX136" s="74"/>
+      <c r="CY136" s="74"/>
+      <c r="CZ136" s="74"/>
+      <c r="DA136" s="74"/>
+      <c r="DB136" s="74"/>
+      <c r="DC136" s="74"/>
+      <c r="DD136" s="74"/>
+      <c r="DE136" s="74"/>
+      <c r="DF136" s="74"/>
+      <c r="DG136" s="74"/>
+      <c r="DH136" s="74"/>
+      <c r="DI136" s="74"/>
+      <c r="DJ136" s="74"/>
+      <c r="DK136" s="74"/>
+      <c r="DL136" s="74"/>
+      <c r="DM136" s="74"/>
+      <c r="DN136" s="74"/>
+      <c r="DO136" s="74"/>
+      <c r="DP136" s="74"/>
+      <c r="DQ136" s="74"/>
+      <c r="DR136" s="74"/>
+      <c r="DS136" s="74"/>
+      <c r="DT136" s="74"/>
+      <c r="DU136" s="74"/>
+      <c r="DV136" s="74"/>
+      <c r="DW136" s="74"/>
+      <c r="DX136" s="74"/>
+      <c r="DY136" s="74"/>
+      <c r="DZ136" s="74"/>
+      <c r="EA136" s="74"/>
+      <c r="EB136" s="74"/>
+      <c r="EC136" s="74"/>
+      <c r="ED136" s="74"/>
+      <c r="EE136" s="74"/>
+      <c r="EF136" s="74"/>
+      <c r="EG136" s="74"/>
+      <c r="EH136" s="74"/>
+      <c r="EI136" s="74"/>
+    </row>
+    <row r="137" ht="6" customHeight="1" spans="2:139">
       <c r="B137" s="48"/>
       <c r="C137" s="51"/>
       <c r="D137" s="51"/>
@@ -22498,20 +23929,114 @@
       <c r="AT137" s="75"/>
       <c r="AU137" s="75"/>
       <c r="AV137" s="75"/>
-      <c r="AW137" s="97"/>
-    </row>
-    <row r="138" ht="6" customHeight="1" spans="2:49">
+      <c r="AW137" s="75"/>
+      <c r="AX137" s="75"/>
+      <c r="AY137" s="75"/>
+      <c r="AZ137" s="75"/>
+      <c r="BA137" s="75"/>
+      <c r="BB137" s="75"/>
+      <c r="BC137" s="75"/>
+      <c r="BD137" s="75"/>
+      <c r="BE137" s="75"/>
+      <c r="BF137" s="75"/>
+      <c r="BG137" s="75"/>
+      <c r="BH137" s="75"/>
+      <c r="BI137" s="75"/>
+      <c r="BJ137" s="75"/>
+      <c r="BK137" s="75"/>
+      <c r="BL137" s="75"/>
+      <c r="BM137" s="75"/>
+      <c r="BN137" s="75"/>
+      <c r="BO137" s="75"/>
+      <c r="BP137" s="75"/>
+      <c r="BQ137" s="75"/>
+      <c r="BR137" s="75"/>
+      <c r="BS137" s="75"/>
+      <c r="BT137" s="75"/>
+      <c r="BU137" s="75"/>
+      <c r="BV137" s="75"/>
+      <c r="BW137" s="75"/>
+      <c r="BX137" s="75"/>
+      <c r="BY137" s="75"/>
+      <c r="BZ137" s="75"/>
+      <c r="CA137" s="75"/>
+      <c r="CB137" s="75"/>
+      <c r="CC137" s="75"/>
+      <c r="CD137" s="75"/>
+      <c r="CE137" s="75"/>
+      <c r="CF137" s="75"/>
+      <c r="CG137" s="75"/>
+      <c r="CH137" s="75"/>
+      <c r="CI137" s="75"/>
+      <c r="CJ137" s="75"/>
+      <c r="CK137" s="75"/>
+      <c r="CL137" s="75"/>
+      <c r="CM137" s="75"/>
+      <c r="CN137" s="75"/>
+      <c r="CO137" s="75"/>
+      <c r="CP137" s="75"/>
+      <c r="CQ137" s="75"/>
+      <c r="CR137" s="75"/>
+      <c r="CS137" s="75"/>
+      <c r="CT137" s="75"/>
+      <c r="CU137" s="75"/>
+      <c r="CV137" s="75"/>
+      <c r="CW137" s="75"/>
+      <c r="CX137" s="75"/>
+      <c r="CY137" s="75"/>
+      <c r="CZ137" s="75"/>
+      <c r="DA137" s="75"/>
+      <c r="DB137" s="75"/>
+      <c r="DC137" s="75"/>
+      <c r="DD137" s="75"/>
+      <c r="DE137" s="75"/>
+      <c r="DF137" s="75"/>
+      <c r="DG137" s="75"/>
+      <c r="DH137" s="75"/>
+      <c r="DI137" s="75"/>
+      <c r="DJ137" s="75"/>
+      <c r="DK137" s="75"/>
+      <c r="DL137" s="75"/>
+      <c r="DM137" s="75"/>
+      <c r="DN137" s="75"/>
+      <c r="DO137" s="75"/>
+      <c r="DP137" s="75"/>
+      <c r="DQ137" s="75"/>
+      <c r="DR137" s="75"/>
+      <c r="DS137" s="75"/>
+      <c r="DT137" s="75"/>
+      <c r="DU137" s="75"/>
+      <c r="DV137" s="75"/>
+      <c r="DW137" s="75"/>
+      <c r="DX137" s="75"/>
+      <c r="DY137" s="75"/>
+      <c r="DZ137" s="75"/>
+      <c r="EA137" s="75"/>
+      <c r="EB137" s="75"/>
+      <c r="EC137" s="75"/>
+      <c r="ED137" s="75"/>
+      <c r="EE137" s="75"/>
+      <c r="EF137" s="75"/>
+      <c r="EG137" s="75"/>
+      <c r="EH137" s="75"/>
+      <c r="EI137" s="75"/>
+    </row>
+    <row r="138" ht="6" customHeight="1" spans="2:139">
       <c r="B138" s="48"/>
       <c r="C138" s="51"/>
       <c r="D138" s="51"/>
       <c r="E138" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F138" s="52"/>
-      <c r="G138" s="52"/>
-      <c r="H138" s="51" t="str">
+      <c r="F138" s="52">
+        <v>45402</v>
+      </c>
+      <c r="G138" s="52">
+        <v>45458</v>
+      </c>
+      <c r="H138" s="51">
         <f>IF(G138="","-",G138-F138+1)</f>
-        <v>-</v>
+        <v>57</v>
       </c>
       <c r="I138" s="74"/>
       <c r="J138" s="74"/>
@@ -22553,9 +24078,99 @@
       <c r="AT138" s="74"/>
       <c r="AU138" s="74"/>
       <c r="AV138" s="74"/>
-      <c r="AW138" s="96"/>
-    </row>
-    <row r="139" ht="10.05" customHeight="1" spans="2:49">
+      <c r="AW138" s="74"/>
+      <c r="AX138" s="74"/>
+      <c r="AY138" s="74"/>
+      <c r="AZ138" s="74"/>
+      <c r="BA138" s="74"/>
+      <c r="BB138" s="74"/>
+      <c r="BC138" s="74"/>
+      <c r="BD138" s="74"/>
+      <c r="BE138" s="74"/>
+      <c r="BF138" s="74"/>
+      <c r="BG138" s="74"/>
+      <c r="BH138" s="74"/>
+      <c r="BI138" s="74"/>
+      <c r="BJ138" s="74"/>
+      <c r="BK138" s="74"/>
+      <c r="BL138" s="74"/>
+      <c r="BM138" s="74"/>
+      <c r="BN138" s="74"/>
+      <c r="BO138" s="74"/>
+      <c r="BP138" s="74"/>
+      <c r="BQ138" s="74"/>
+      <c r="BR138" s="74"/>
+      <c r="BS138" s="74"/>
+      <c r="BT138" s="74"/>
+      <c r="BU138" s="74"/>
+      <c r="BV138" s="74"/>
+      <c r="BW138" s="74"/>
+      <c r="BX138" s="74"/>
+      <c r="BY138" s="74"/>
+      <c r="BZ138" s="74"/>
+      <c r="CA138" s="74"/>
+      <c r="CB138" s="74"/>
+      <c r="CC138" s="74"/>
+      <c r="CD138" s="74"/>
+      <c r="CE138" s="74"/>
+      <c r="CF138" s="74"/>
+      <c r="CG138" s="74"/>
+      <c r="CH138" s="74"/>
+      <c r="CI138" s="74"/>
+      <c r="CJ138" s="74"/>
+      <c r="CK138" s="74"/>
+      <c r="CL138" s="74"/>
+      <c r="CM138" s="74"/>
+      <c r="CN138" s="74"/>
+      <c r="CO138" s="74"/>
+      <c r="CP138" s="74"/>
+      <c r="CQ138" s="74"/>
+      <c r="CR138" s="74"/>
+      <c r="CS138" s="74"/>
+      <c r="CT138" s="74"/>
+      <c r="CU138" s="74"/>
+      <c r="CV138" s="74"/>
+      <c r="CW138" s="74"/>
+      <c r="CX138" s="74"/>
+      <c r="CY138" s="74"/>
+      <c r="CZ138" s="74"/>
+      <c r="DA138" s="74"/>
+      <c r="DB138" s="74"/>
+      <c r="DC138" s="74"/>
+      <c r="DD138" s="74"/>
+      <c r="DE138" s="74"/>
+      <c r="DF138" s="74"/>
+      <c r="DG138" s="74"/>
+      <c r="DH138" s="74"/>
+      <c r="DI138" s="74"/>
+      <c r="DJ138" s="74"/>
+      <c r="DK138" s="74"/>
+      <c r="DL138" s="74"/>
+      <c r="DM138" s="74"/>
+      <c r="DN138" s="74"/>
+      <c r="DO138" s="74"/>
+      <c r="DP138" s="74"/>
+      <c r="DQ138" s="74"/>
+      <c r="DR138" s="74"/>
+      <c r="DS138" s="74"/>
+      <c r="DT138" s="74"/>
+      <c r="DU138" s="74"/>
+      <c r="DV138" s="74"/>
+      <c r="DW138" s="74"/>
+      <c r="DX138" s="74"/>
+      <c r="DY138" s="74"/>
+      <c r="DZ138" s="74"/>
+      <c r="EA138" s="74"/>
+      <c r="EB138" s="74"/>
+      <c r="EC138" s="74"/>
+      <c r="ED138" s="74"/>
+      <c r="EE138" s="74"/>
+      <c r="EF138" s="74"/>
+      <c r="EG138" s="74"/>
+      <c r="EH138" s="74"/>
+      <c r="EI138" s="74"/>
+    </row>
+    <row r="139" ht="10.05" customHeight="1" spans="2:139">
       <c r="B139" s="48"/>
       <c r="C139" s="51"/>
       <c r="D139" s="51"/>
@@ -22603,9 +24218,99 @@
       <c r="AT139" s="74"/>
       <c r="AU139" s="74"/>
       <c r="AV139" s="74"/>
-      <c r="AW139" s="96"/>
-    </row>
-    <row r="140" ht="6" customHeight="1" spans="2:49">
+      <c r="AW139" s="74"/>
+      <c r="AX139" s="74"/>
+      <c r="AY139" s="74"/>
+      <c r="AZ139" s="74"/>
+      <c r="BA139" s="74"/>
+      <c r="BB139" s="74"/>
+      <c r="BC139" s="74"/>
+      <c r="BD139" s="74"/>
+      <c r="BE139" s="74"/>
+      <c r="BF139" s="74"/>
+      <c r="BG139" s="74"/>
+      <c r="BH139" s="74"/>
+      <c r="BI139" s="74"/>
+      <c r="BJ139" s="74"/>
+      <c r="BK139" s="74"/>
+      <c r="BL139" s="74"/>
+      <c r="BM139" s="74"/>
+      <c r="BN139" s="74"/>
+      <c r="BO139" s="74"/>
+      <c r="BP139" s="74"/>
+      <c r="BQ139" s="74"/>
+      <c r="BR139" s="74"/>
+      <c r="BS139" s="74"/>
+      <c r="BT139" s="74"/>
+      <c r="BU139" s="74"/>
+      <c r="BV139" s="74"/>
+      <c r="BW139" s="74"/>
+      <c r="BX139" s="74"/>
+      <c r="BY139" s="74"/>
+      <c r="BZ139" s="74"/>
+      <c r="CA139" s="74"/>
+      <c r="CB139" s="74"/>
+      <c r="CC139" s="74"/>
+      <c r="CD139" s="74"/>
+      <c r="CE139" s="74"/>
+      <c r="CF139" s="74"/>
+      <c r="CG139" s="74"/>
+      <c r="CH139" s="74"/>
+      <c r="CI139" s="74"/>
+      <c r="CJ139" s="74"/>
+      <c r="CK139" s="74"/>
+      <c r="CL139" s="74"/>
+      <c r="CM139" s="74"/>
+      <c r="CN139" s="74"/>
+      <c r="CO139" s="74"/>
+      <c r="CP139" s="74"/>
+      <c r="CQ139" s="74"/>
+      <c r="CR139" s="74"/>
+      <c r="CS139" s="74"/>
+      <c r="CT139" s="74"/>
+      <c r="CU139" s="74"/>
+      <c r="CV139" s="74"/>
+      <c r="CW139" s="74"/>
+      <c r="CX139" s="74"/>
+      <c r="CY139" s="74"/>
+      <c r="CZ139" s="74"/>
+      <c r="DA139" s="74"/>
+      <c r="DB139" s="74"/>
+      <c r="DC139" s="74"/>
+      <c r="DD139" s="74"/>
+      <c r="DE139" s="74"/>
+      <c r="DF139" s="74"/>
+      <c r="DG139" s="74"/>
+      <c r="DH139" s="74"/>
+      <c r="DI139" s="74"/>
+      <c r="DJ139" s="74"/>
+      <c r="DK139" s="74"/>
+      <c r="DL139" s="74"/>
+      <c r="DM139" s="74"/>
+      <c r="DN139" s="74"/>
+      <c r="DO139" s="74"/>
+      <c r="DP139" s="74"/>
+      <c r="DQ139" s="74"/>
+      <c r="DR139" s="74"/>
+      <c r="DS139" s="74"/>
+      <c r="DT139" s="74"/>
+      <c r="DU139" s="74"/>
+      <c r="DV139" s="74"/>
+      <c r="DW139" s="74"/>
+      <c r="DX139" s="74"/>
+      <c r="DY139" s="74"/>
+      <c r="DZ139" s="74"/>
+      <c r="EA139" s="74"/>
+      <c r="EB139" s="74"/>
+      <c r="EC139" s="74"/>
+      <c r="ED139" s="74"/>
+      <c r="EE139" s="74"/>
+      <c r="EF139" s="74"/>
+      <c r="EG139" s="74"/>
+      <c r="EH139" s="74"/>
+      <c r="EI139" s="74"/>
+    </row>
+    <row r="140" ht="6" customHeight="1" spans="2:139">
       <c r="B140" s="55"/>
       <c r="C140" s="56"/>
       <c r="D140" s="56"/>
@@ -22653,26 +24358,122 @@
       <c r="AT140" s="76"/>
       <c r="AU140" s="76"/>
       <c r="AV140" s="76"/>
-      <c r="AW140" s="98"/>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="6" customHeight="1" spans="1:49">
+      <c r="AW140" s="76"/>
+      <c r="AX140" s="76"/>
+      <c r="AY140" s="76"/>
+      <c r="AZ140" s="76"/>
+      <c r="BA140" s="76"/>
+      <c r="BB140" s="76"/>
+      <c r="BC140" s="76"/>
+      <c r="BD140" s="76"/>
+      <c r="BE140" s="76"/>
+      <c r="BF140" s="76"/>
+      <c r="BG140" s="76"/>
+      <c r="BH140" s="76"/>
+      <c r="BI140" s="76"/>
+      <c r="BJ140" s="76"/>
+      <c r="BK140" s="76"/>
+      <c r="BL140" s="76"/>
+      <c r="BM140" s="76"/>
+      <c r="BN140" s="76"/>
+      <c r="BO140" s="76"/>
+      <c r="BP140" s="76"/>
+      <c r="BQ140" s="76"/>
+      <c r="BR140" s="76"/>
+      <c r="BS140" s="76"/>
+      <c r="BT140" s="76"/>
+      <c r="BU140" s="76"/>
+      <c r="BV140" s="76"/>
+      <c r="BW140" s="76"/>
+      <c r="BX140" s="76"/>
+      <c r="BY140" s="76"/>
+      <c r="BZ140" s="76"/>
+      <c r="CA140" s="76"/>
+      <c r="CB140" s="76"/>
+      <c r="CC140" s="76"/>
+      <c r="CD140" s="76"/>
+      <c r="CE140" s="76"/>
+      <c r="CF140" s="76"/>
+      <c r="CG140" s="76"/>
+      <c r="CH140" s="76"/>
+      <c r="CI140" s="76"/>
+      <c r="CJ140" s="76"/>
+      <c r="CK140" s="76"/>
+      <c r="CL140" s="76"/>
+      <c r="CM140" s="76"/>
+      <c r="CN140" s="76"/>
+      <c r="CO140" s="76"/>
+      <c r="CP140" s="76"/>
+      <c r="CQ140" s="76"/>
+      <c r="CR140" s="76"/>
+      <c r="CS140" s="76"/>
+      <c r="CT140" s="76"/>
+      <c r="CU140" s="76"/>
+      <c r="CV140" s="76"/>
+      <c r="CW140" s="76"/>
+      <c r="CX140" s="76"/>
+      <c r="CY140" s="76"/>
+      <c r="CZ140" s="76"/>
+      <c r="DA140" s="76"/>
+      <c r="DB140" s="76"/>
+      <c r="DC140" s="76"/>
+      <c r="DD140" s="76"/>
+      <c r="DE140" s="76"/>
+      <c r="DF140" s="76"/>
+      <c r="DG140" s="76"/>
+      <c r="DH140" s="76"/>
+      <c r="DI140" s="76"/>
+      <c r="DJ140" s="76"/>
+      <c r="DK140" s="76"/>
+      <c r="DL140" s="76"/>
+      <c r="DM140" s="76"/>
+      <c r="DN140" s="76"/>
+      <c r="DO140" s="76"/>
+      <c r="DP140" s="76"/>
+      <c r="DQ140" s="76"/>
+      <c r="DR140" s="76"/>
+      <c r="DS140" s="76"/>
+      <c r="DT140" s="76"/>
+      <c r="DU140" s="76"/>
+      <c r="DV140" s="76"/>
+      <c r="DW140" s="76"/>
+      <c r="DX140" s="76"/>
+      <c r="DY140" s="76"/>
+      <c r="DZ140" s="76"/>
+      <c r="EA140" s="76"/>
+      <c r="EB140" s="76"/>
+      <c r="EC140" s="76"/>
+      <c r="ED140" s="76"/>
+      <c r="EE140" s="76"/>
+      <c r="EF140" s="76"/>
+      <c r="EG140" s="76"/>
+      <c r="EH140" s="76"/>
+      <c r="EI140" s="76"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="6" customHeight="1" spans="1:139">
       <c r="A141" s="45"/>
       <c r="B141" s="48">
         <v>22</v>
       </c>
-      <c r="C141" s="49"/>
+      <c r="C141" s="49" t="s">
+        <v>54</v>
+      </c>
       <c r="D141" s="49" t="str">
         <f>IF(C141="","-",IF(G144&lt;&gt;"","完成",IF(F144&lt;&gt;"","进行中","未开始")))</f>
-        <v>-</v>
+        <v>完成</v>
       </c>
       <c r="E141" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="49" t="str">
+      <c r="F141" s="50">
+        <v>45455</v>
+      </c>
+      <c r="G141" s="50">
+        <v>45457</v>
+      </c>
+      <c r="H141" s="49">
         <f>IF(G141="","-",G141-F141+1)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="I141" s="73"/>
       <c r="J141" s="73"/>
@@ -22714,9 +24515,99 @@
       <c r="AT141" s="73"/>
       <c r="AU141" s="73"/>
       <c r="AV141" s="73"/>
-      <c r="AW141" s="95"/>
-    </row>
-    <row r="142" ht="10.05" customHeight="1" spans="2:49">
+      <c r="AW141" s="73"/>
+      <c r="AX141" s="73"/>
+      <c r="AY141" s="73"/>
+      <c r="AZ141" s="73"/>
+      <c r="BA141" s="73"/>
+      <c r="BB141" s="73"/>
+      <c r="BC141" s="73"/>
+      <c r="BD141" s="73"/>
+      <c r="BE141" s="73"/>
+      <c r="BF141" s="73"/>
+      <c r="BG141" s="73"/>
+      <c r="BH141" s="73"/>
+      <c r="BI141" s="73"/>
+      <c r="BJ141" s="73"/>
+      <c r="BK141" s="73"/>
+      <c r="BL141" s="73"/>
+      <c r="BM141" s="73"/>
+      <c r="BN141" s="73"/>
+      <c r="BO141" s="73"/>
+      <c r="BP141" s="73"/>
+      <c r="BQ141" s="73"/>
+      <c r="BR141" s="73"/>
+      <c r="BS141" s="73"/>
+      <c r="BT141" s="73"/>
+      <c r="BU141" s="73"/>
+      <c r="BV141" s="73"/>
+      <c r="BW141" s="73"/>
+      <c r="BX141" s="73"/>
+      <c r="BY141" s="73"/>
+      <c r="BZ141" s="73"/>
+      <c r="CA141" s="73"/>
+      <c r="CB141" s="73"/>
+      <c r="CC141" s="73"/>
+      <c r="CD141" s="73"/>
+      <c r="CE141" s="73"/>
+      <c r="CF141" s="73"/>
+      <c r="CG141" s="73"/>
+      <c r="CH141" s="73"/>
+      <c r="CI141" s="73"/>
+      <c r="CJ141" s="73"/>
+      <c r="CK141" s="73"/>
+      <c r="CL141" s="73"/>
+      <c r="CM141" s="73"/>
+      <c r="CN141" s="73"/>
+      <c r="CO141" s="73"/>
+      <c r="CP141" s="73"/>
+      <c r="CQ141" s="73"/>
+      <c r="CR141" s="73"/>
+      <c r="CS141" s="73"/>
+      <c r="CT141" s="73"/>
+      <c r="CU141" s="73"/>
+      <c r="CV141" s="73"/>
+      <c r="CW141" s="73"/>
+      <c r="CX141" s="73"/>
+      <c r="CY141" s="73"/>
+      <c r="CZ141" s="73"/>
+      <c r="DA141" s="73"/>
+      <c r="DB141" s="73"/>
+      <c r="DC141" s="73"/>
+      <c r="DD141" s="73"/>
+      <c r="DE141" s="73"/>
+      <c r="DF141" s="73"/>
+      <c r="DG141" s="73"/>
+      <c r="DH141" s="73"/>
+      <c r="DI141" s="73"/>
+      <c r="DJ141" s="73"/>
+      <c r="DK141" s="73"/>
+      <c r="DL141" s="73"/>
+      <c r="DM141" s="73"/>
+      <c r="DN141" s="73"/>
+      <c r="DO141" s="73"/>
+      <c r="DP141" s="73"/>
+      <c r="DQ141" s="73"/>
+      <c r="DR141" s="73"/>
+      <c r="DS141" s="73"/>
+      <c r="DT141" s="73"/>
+      <c r="DU141" s="73"/>
+      <c r="DV141" s="73"/>
+      <c r="DW141" s="73"/>
+      <c r="DX141" s="73"/>
+      <c r="DY141" s="73"/>
+      <c r="DZ141" s="73"/>
+      <c r="EA141" s="73"/>
+      <c r="EB141" s="73"/>
+      <c r="EC141" s="73"/>
+      <c r="ED141" s="73"/>
+      <c r="EE141" s="73"/>
+      <c r="EF141" s="73"/>
+      <c r="EG141" s="73"/>
+      <c r="EH141" s="73"/>
+      <c r="EI141" s="73"/>
+    </row>
+    <row r="142" ht="10.05" customHeight="1" spans="2:139">
       <c r="B142" s="48"/>
       <c r="C142" s="51"/>
       <c r="D142" s="51"/>
@@ -22764,9 +24655,99 @@
       <c r="AT142" s="74"/>
       <c r="AU142" s="74"/>
       <c r="AV142" s="74"/>
-      <c r="AW142" s="96"/>
-    </row>
-    <row r="143" ht="6" customHeight="1" spans="2:49">
+      <c r="AW142" s="74"/>
+      <c r="AX142" s="74"/>
+      <c r="AY142" s="74"/>
+      <c r="AZ142" s="74"/>
+      <c r="BA142" s="74"/>
+      <c r="BB142" s="74"/>
+      <c r="BC142" s="74"/>
+      <c r="BD142" s="74"/>
+      <c r="BE142" s="74"/>
+      <c r="BF142" s="74"/>
+      <c r="BG142" s="74"/>
+      <c r="BH142" s="74"/>
+      <c r="BI142" s="74"/>
+      <c r="BJ142" s="74"/>
+      <c r="BK142" s="74"/>
+      <c r="BL142" s="74"/>
+      <c r="BM142" s="74"/>
+      <c r="BN142" s="74"/>
+      <c r="BO142" s="74"/>
+      <c r="BP142" s="74"/>
+      <c r="BQ142" s="74"/>
+      <c r="BR142" s="74"/>
+      <c r="BS142" s="74"/>
+      <c r="BT142" s="74"/>
+      <c r="BU142" s="74"/>
+      <c r="BV142" s="74"/>
+      <c r="BW142" s="74"/>
+      <c r="BX142" s="74"/>
+      <c r="BY142" s="74"/>
+      <c r="BZ142" s="74"/>
+      <c r="CA142" s="74"/>
+      <c r="CB142" s="74"/>
+      <c r="CC142" s="74"/>
+      <c r="CD142" s="74"/>
+      <c r="CE142" s="74"/>
+      <c r="CF142" s="74"/>
+      <c r="CG142" s="74"/>
+      <c r="CH142" s="74"/>
+      <c r="CI142" s="74"/>
+      <c r="CJ142" s="74"/>
+      <c r="CK142" s="74"/>
+      <c r="CL142" s="74"/>
+      <c r="CM142" s="74"/>
+      <c r="CN142" s="74"/>
+      <c r="CO142" s="74"/>
+      <c r="CP142" s="74"/>
+      <c r="CQ142" s="74"/>
+      <c r="CR142" s="74"/>
+      <c r="CS142" s="74"/>
+      <c r="CT142" s="74"/>
+      <c r="CU142" s="74"/>
+      <c r="CV142" s="74"/>
+      <c r="CW142" s="74"/>
+      <c r="CX142" s="74"/>
+      <c r="CY142" s="74"/>
+      <c r="CZ142" s="74"/>
+      <c r="DA142" s="74"/>
+      <c r="DB142" s="74"/>
+      <c r="DC142" s="74"/>
+      <c r="DD142" s="74"/>
+      <c r="DE142" s="74"/>
+      <c r="DF142" s="74"/>
+      <c r="DG142" s="74"/>
+      <c r="DH142" s="74"/>
+      <c r="DI142" s="74"/>
+      <c r="DJ142" s="74"/>
+      <c r="DK142" s="74"/>
+      <c r="DL142" s="74"/>
+      <c r="DM142" s="74"/>
+      <c r="DN142" s="74"/>
+      <c r="DO142" s="74"/>
+      <c r="DP142" s="74"/>
+      <c r="DQ142" s="74"/>
+      <c r="DR142" s="74"/>
+      <c r="DS142" s="74"/>
+      <c r="DT142" s="74"/>
+      <c r="DU142" s="74"/>
+      <c r="DV142" s="74"/>
+      <c r="DW142" s="74"/>
+      <c r="DX142" s="74"/>
+      <c r="DY142" s="74"/>
+      <c r="DZ142" s="74"/>
+      <c r="EA142" s="74"/>
+      <c r="EB142" s="74"/>
+      <c r="EC142" s="74"/>
+      <c r="ED142" s="74"/>
+      <c r="EE142" s="74"/>
+      <c r="EF142" s="74"/>
+      <c r="EG142" s="74"/>
+      <c r="EH142" s="74"/>
+      <c r="EI142" s="74"/>
+    </row>
+    <row r="143" ht="6" customHeight="1" spans="2:139">
       <c r="B143" s="48"/>
       <c r="C143" s="51"/>
       <c r="D143" s="51"/>
@@ -22814,20 +24795,114 @@
       <c r="AT143" s="75"/>
       <c r="AU143" s="75"/>
       <c r="AV143" s="75"/>
-      <c r="AW143" s="97"/>
-    </row>
-    <row r="144" ht="6" customHeight="1" spans="2:49">
+      <c r="AW143" s="75"/>
+      <c r="AX143" s="75"/>
+      <c r="AY143" s="75"/>
+      <c r="AZ143" s="75"/>
+      <c r="BA143" s="75"/>
+      <c r="BB143" s="75"/>
+      <c r="BC143" s="75"/>
+      <c r="BD143" s="75"/>
+      <c r="BE143" s="75"/>
+      <c r="BF143" s="75"/>
+      <c r="BG143" s="75"/>
+      <c r="BH143" s="75"/>
+      <c r="BI143" s="75"/>
+      <c r="BJ143" s="75"/>
+      <c r="BK143" s="75"/>
+      <c r="BL143" s="75"/>
+      <c r="BM143" s="75"/>
+      <c r="BN143" s="75"/>
+      <c r="BO143" s="75"/>
+      <c r="BP143" s="75"/>
+      <c r="BQ143" s="75"/>
+      <c r="BR143" s="75"/>
+      <c r="BS143" s="75"/>
+      <c r="BT143" s="75"/>
+      <c r="BU143" s="75"/>
+      <c r="BV143" s="75"/>
+      <c r="BW143" s="75"/>
+      <c r="BX143" s="75"/>
+      <c r="BY143" s="75"/>
+      <c r="BZ143" s="75"/>
+      <c r="CA143" s="75"/>
+      <c r="CB143" s="75"/>
+      <c r="CC143" s="75"/>
+      <c r="CD143" s="75"/>
+      <c r="CE143" s="75"/>
+      <c r="CF143" s="75"/>
+      <c r="CG143" s="75"/>
+      <c r="CH143" s="75"/>
+      <c r="CI143" s="75"/>
+      <c r="CJ143" s="75"/>
+      <c r="CK143" s="75"/>
+      <c r="CL143" s="75"/>
+      <c r="CM143" s="75"/>
+      <c r="CN143" s="75"/>
+      <c r="CO143" s="75"/>
+      <c r="CP143" s="75"/>
+      <c r="CQ143" s="75"/>
+      <c r="CR143" s="75"/>
+      <c r="CS143" s="75"/>
+      <c r="CT143" s="75"/>
+      <c r="CU143" s="75"/>
+      <c r="CV143" s="75"/>
+      <c r="CW143" s="75"/>
+      <c r="CX143" s="75"/>
+      <c r="CY143" s="75"/>
+      <c r="CZ143" s="75"/>
+      <c r="DA143" s="75"/>
+      <c r="DB143" s="75"/>
+      <c r="DC143" s="75"/>
+      <c r="DD143" s="75"/>
+      <c r="DE143" s="75"/>
+      <c r="DF143" s="75"/>
+      <c r="DG143" s="75"/>
+      <c r="DH143" s="75"/>
+      <c r="DI143" s="75"/>
+      <c r="DJ143" s="75"/>
+      <c r="DK143" s="75"/>
+      <c r="DL143" s="75"/>
+      <c r="DM143" s="75"/>
+      <c r="DN143" s="75"/>
+      <c r="DO143" s="75"/>
+      <c r="DP143" s="75"/>
+      <c r="DQ143" s="75"/>
+      <c r="DR143" s="75"/>
+      <c r="DS143" s="75"/>
+      <c r="DT143" s="75"/>
+      <c r="DU143" s="75"/>
+      <c r="DV143" s="75"/>
+      <c r="DW143" s="75"/>
+      <c r="DX143" s="75"/>
+      <c r="DY143" s="75"/>
+      <c r="DZ143" s="75"/>
+      <c r="EA143" s="75"/>
+      <c r="EB143" s="75"/>
+      <c r="EC143" s="75"/>
+      <c r="ED143" s="75"/>
+      <c r="EE143" s="75"/>
+      <c r="EF143" s="75"/>
+      <c r="EG143" s="75"/>
+      <c r="EH143" s="75"/>
+      <c r="EI143" s="75"/>
+    </row>
+    <row r="144" ht="6" customHeight="1" spans="2:139">
       <c r="B144" s="48"/>
       <c r="C144" s="51"/>
       <c r="D144" s="51"/>
       <c r="E144" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F144" s="52"/>
-      <c r="G144" s="52"/>
-      <c r="H144" s="51" t="str">
+      <c r="F144" s="52">
+        <v>45454</v>
+      </c>
+      <c r="G144" s="52">
+        <v>45455</v>
+      </c>
+      <c r="H144" s="51">
         <f>IF(G144="","-",G144-F144+1)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="I144" s="74"/>
       <c r="J144" s="74"/>
@@ -22869,9 +24944,99 @@
       <c r="AT144" s="74"/>
       <c r="AU144" s="74"/>
       <c r="AV144" s="74"/>
-      <c r="AW144" s="96"/>
-    </row>
-    <row r="145" ht="10.05" customHeight="1" spans="2:49">
+      <c r="AW144" s="74"/>
+      <c r="AX144" s="74"/>
+      <c r="AY144" s="74"/>
+      <c r="AZ144" s="74"/>
+      <c r="BA144" s="74"/>
+      <c r="BB144" s="74"/>
+      <c r="BC144" s="74"/>
+      <c r="BD144" s="74"/>
+      <c r="BE144" s="74"/>
+      <c r="BF144" s="74"/>
+      <c r="BG144" s="74"/>
+      <c r="BH144" s="74"/>
+      <c r="BI144" s="74"/>
+      <c r="BJ144" s="74"/>
+      <c r="BK144" s="74"/>
+      <c r="BL144" s="74"/>
+      <c r="BM144" s="74"/>
+      <c r="BN144" s="74"/>
+      <c r="BO144" s="74"/>
+      <c r="BP144" s="74"/>
+      <c r="BQ144" s="74"/>
+      <c r="BR144" s="74"/>
+      <c r="BS144" s="74"/>
+      <c r="BT144" s="74"/>
+      <c r="BU144" s="74"/>
+      <c r="BV144" s="74"/>
+      <c r="BW144" s="74"/>
+      <c r="BX144" s="74"/>
+      <c r="BY144" s="74"/>
+      <c r="BZ144" s="74"/>
+      <c r="CA144" s="74"/>
+      <c r="CB144" s="74"/>
+      <c r="CC144" s="74"/>
+      <c r="CD144" s="74"/>
+      <c r="CE144" s="74"/>
+      <c r="CF144" s="74"/>
+      <c r="CG144" s="74"/>
+      <c r="CH144" s="74"/>
+      <c r="CI144" s="74"/>
+      <c r="CJ144" s="74"/>
+      <c r="CK144" s="74"/>
+      <c r="CL144" s="74"/>
+      <c r="CM144" s="74"/>
+      <c r="CN144" s="74"/>
+      <c r="CO144" s="74"/>
+      <c r="CP144" s="74"/>
+      <c r="CQ144" s="74"/>
+      <c r="CR144" s="74"/>
+      <c r="CS144" s="74"/>
+      <c r="CT144" s="74"/>
+      <c r="CU144" s="74"/>
+      <c r="CV144" s="74"/>
+      <c r="CW144" s="74"/>
+      <c r="CX144" s="74"/>
+      <c r="CY144" s="74"/>
+      <c r="CZ144" s="74"/>
+      <c r="DA144" s="74"/>
+      <c r="DB144" s="74"/>
+      <c r="DC144" s="74"/>
+      <c r="DD144" s="74"/>
+      <c r="DE144" s="74"/>
+      <c r="DF144" s="74"/>
+      <c r="DG144" s="74"/>
+      <c r="DH144" s="74"/>
+      <c r="DI144" s="74"/>
+      <c r="DJ144" s="74"/>
+      <c r="DK144" s="74"/>
+      <c r="DL144" s="74"/>
+      <c r="DM144" s="74"/>
+      <c r="DN144" s="74"/>
+      <c r="DO144" s="74"/>
+      <c r="DP144" s="74"/>
+      <c r="DQ144" s="74"/>
+      <c r="DR144" s="74"/>
+      <c r="DS144" s="74"/>
+      <c r="DT144" s="74"/>
+      <c r="DU144" s="74"/>
+      <c r="DV144" s="74"/>
+      <c r="DW144" s="74"/>
+      <c r="DX144" s="74"/>
+      <c r="DY144" s="74"/>
+      <c r="DZ144" s="74"/>
+      <c r="EA144" s="74"/>
+      <c r="EB144" s="74"/>
+      <c r="EC144" s="74"/>
+      <c r="ED144" s="74"/>
+      <c r="EE144" s="74"/>
+      <c r="EF144" s="74"/>
+      <c r="EG144" s="74"/>
+      <c r="EH144" s="74"/>
+      <c r="EI144" s="74"/>
+    </row>
+    <row r="145" ht="10.05" customHeight="1" spans="2:139">
       <c r="B145" s="48"/>
       <c r="C145" s="51"/>
       <c r="D145" s="51"/>
@@ -22919,9 +25084,99 @@
       <c r="AT145" s="74"/>
       <c r="AU145" s="74"/>
       <c r="AV145" s="74"/>
-      <c r="AW145" s="96"/>
-    </row>
-    <row r="146" ht="6" customHeight="1" spans="2:49">
+      <c r="AW145" s="74"/>
+      <c r="AX145" s="74"/>
+      <c r="AY145" s="74"/>
+      <c r="AZ145" s="74"/>
+      <c r="BA145" s="74"/>
+      <c r="BB145" s="74"/>
+      <c r="BC145" s="74"/>
+      <c r="BD145" s="74"/>
+      <c r="BE145" s="74"/>
+      <c r="BF145" s="74"/>
+      <c r="BG145" s="74"/>
+      <c r="BH145" s="74"/>
+      <c r="BI145" s="74"/>
+      <c r="BJ145" s="74"/>
+      <c r="BK145" s="74"/>
+      <c r="BL145" s="74"/>
+      <c r="BM145" s="74"/>
+      <c r="BN145" s="74"/>
+      <c r="BO145" s="74"/>
+      <c r="BP145" s="74"/>
+      <c r="BQ145" s="74"/>
+      <c r="BR145" s="74"/>
+      <c r="BS145" s="74"/>
+      <c r="BT145" s="74"/>
+      <c r="BU145" s="74"/>
+      <c r="BV145" s="74"/>
+      <c r="BW145" s="74"/>
+      <c r="BX145" s="74"/>
+      <c r="BY145" s="74"/>
+      <c r="BZ145" s="74"/>
+      <c r="CA145" s="74"/>
+      <c r="CB145" s="74"/>
+      <c r="CC145" s="74"/>
+      <c r="CD145" s="74"/>
+      <c r="CE145" s="74"/>
+      <c r="CF145" s="74"/>
+      <c r="CG145" s="74"/>
+      <c r="CH145" s="74"/>
+      <c r="CI145" s="74"/>
+      <c r="CJ145" s="74"/>
+      <c r="CK145" s="74"/>
+      <c r="CL145" s="74"/>
+      <c r="CM145" s="74"/>
+      <c r="CN145" s="74"/>
+      <c r="CO145" s="74"/>
+      <c r="CP145" s="74"/>
+      <c r="CQ145" s="74"/>
+      <c r="CR145" s="74"/>
+      <c r="CS145" s="74"/>
+      <c r="CT145" s="74"/>
+      <c r="CU145" s="74"/>
+      <c r="CV145" s="74"/>
+      <c r="CW145" s="74"/>
+      <c r="CX145" s="74"/>
+      <c r="CY145" s="74"/>
+      <c r="CZ145" s="74"/>
+      <c r="DA145" s="74"/>
+      <c r="DB145" s="74"/>
+      <c r="DC145" s="74"/>
+      <c r="DD145" s="74"/>
+      <c r="DE145" s="74"/>
+      <c r="DF145" s="74"/>
+      <c r="DG145" s="74"/>
+      <c r="DH145" s="74"/>
+      <c r="DI145" s="74"/>
+      <c r="DJ145" s="74"/>
+      <c r="DK145" s="74"/>
+      <c r="DL145" s="74"/>
+      <c r="DM145" s="74"/>
+      <c r="DN145" s="74"/>
+      <c r="DO145" s="74"/>
+      <c r="DP145" s="74"/>
+      <c r="DQ145" s="74"/>
+      <c r="DR145" s="74"/>
+      <c r="DS145" s="74"/>
+      <c r="DT145" s="74"/>
+      <c r="DU145" s="74"/>
+      <c r="DV145" s="74"/>
+      <c r="DW145" s="74"/>
+      <c r="DX145" s="74"/>
+      <c r="DY145" s="74"/>
+      <c r="DZ145" s="74"/>
+      <c r="EA145" s="74"/>
+      <c r="EB145" s="74"/>
+      <c r="EC145" s="74"/>
+      <c r="ED145" s="74"/>
+      <c r="EE145" s="74"/>
+      <c r="EF145" s="74"/>
+      <c r="EG145" s="74"/>
+      <c r="EH145" s="74"/>
+      <c r="EI145" s="74"/>
+    </row>
+    <row r="146" ht="6" customHeight="1" spans="2:139">
       <c r="B146" s="55"/>
       <c r="C146" s="56"/>
       <c r="D146" s="56"/>
@@ -22969,7 +25224,97 @@
       <c r="AT146" s="76"/>
       <c r="AU146" s="76"/>
       <c r="AV146" s="76"/>
-      <c r="AW146" s="98"/>
+      <c r="AW146" s="76"/>
+      <c r="AX146" s="76"/>
+      <c r="AY146" s="76"/>
+      <c r="AZ146" s="76"/>
+      <c r="BA146" s="76"/>
+      <c r="BB146" s="76"/>
+      <c r="BC146" s="76"/>
+      <c r="BD146" s="76"/>
+      <c r="BE146" s="76"/>
+      <c r="BF146" s="76"/>
+      <c r="BG146" s="76"/>
+      <c r="BH146" s="76"/>
+      <c r="BI146" s="76"/>
+      <c r="BJ146" s="76"/>
+      <c r="BK146" s="76"/>
+      <c r="BL146" s="76"/>
+      <c r="BM146" s="76"/>
+      <c r="BN146" s="76"/>
+      <c r="BO146" s="76"/>
+      <c r="BP146" s="76"/>
+      <c r="BQ146" s="76"/>
+      <c r="BR146" s="76"/>
+      <c r="BS146" s="76"/>
+      <c r="BT146" s="76"/>
+      <c r="BU146" s="76"/>
+      <c r="BV146" s="76"/>
+      <c r="BW146" s="76"/>
+      <c r="BX146" s="76"/>
+      <c r="BY146" s="76"/>
+      <c r="BZ146" s="76"/>
+      <c r="CA146" s="76"/>
+      <c r="CB146" s="76"/>
+      <c r="CC146" s="76"/>
+      <c r="CD146" s="76"/>
+      <c r="CE146" s="76"/>
+      <c r="CF146" s="76"/>
+      <c r="CG146" s="76"/>
+      <c r="CH146" s="76"/>
+      <c r="CI146" s="76"/>
+      <c r="CJ146" s="76"/>
+      <c r="CK146" s="76"/>
+      <c r="CL146" s="76"/>
+      <c r="CM146" s="76"/>
+      <c r="CN146" s="76"/>
+      <c r="CO146" s="76"/>
+      <c r="CP146" s="76"/>
+      <c r="CQ146" s="76"/>
+      <c r="CR146" s="76"/>
+      <c r="CS146" s="76"/>
+      <c r="CT146" s="76"/>
+      <c r="CU146" s="76"/>
+      <c r="CV146" s="76"/>
+      <c r="CW146" s="76"/>
+      <c r="CX146" s="76"/>
+      <c r="CY146" s="76"/>
+      <c r="CZ146" s="76"/>
+      <c r="DA146" s="76"/>
+      <c r="DB146" s="76"/>
+      <c r="DC146" s="76"/>
+      <c r="DD146" s="76"/>
+      <c r="DE146" s="76"/>
+      <c r="DF146" s="76"/>
+      <c r="DG146" s="76"/>
+      <c r="DH146" s="76"/>
+      <c r="DI146" s="76"/>
+      <c r="DJ146" s="76"/>
+      <c r="DK146" s="76"/>
+      <c r="DL146" s="76"/>
+      <c r="DM146" s="76"/>
+      <c r="DN146" s="76"/>
+      <c r="DO146" s="76"/>
+      <c r="DP146" s="76"/>
+      <c r="DQ146" s="76"/>
+      <c r="DR146" s="76"/>
+      <c r="DS146" s="76"/>
+      <c r="DT146" s="76"/>
+      <c r="DU146" s="76"/>
+      <c r="DV146" s="76"/>
+      <c r="DW146" s="76"/>
+      <c r="DX146" s="76"/>
+      <c r="DY146" s="76"/>
+      <c r="DZ146" s="76"/>
+      <c r="EA146" s="76"/>
+      <c r="EB146" s="76"/>
+      <c r="EC146" s="76"/>
+      <c r="ED146" s="76"/>
+      <c r="EE146" s="76"/>
+      <c r="EF146" s="76"/>
+      <c r="EG146" s="76"/>
+      <c r="EH146" s="76"/>
+      <c r="EI146" s="76"/>
     </row>
     <row r="147" s="1" customFormat="1" ht="6" customHeight="1" spans="1:49">
       <c r="A147" s="45"/>
@@ -28160,12 +30505,12 @@
       <formula>AF7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:AW236 AX15:DO122">
+  <conditionalFormatting sqref="I15:DO122 I123:EI146 I147:AW236">
     <cfRule type="expression" dxfId="1" priority="489">
       <formula>TODAY()=I$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:DO16 I22:DO22 I28:DO28 I40:DO40 I52:DO52 I64:DO64 I76:DO76 I88:DO88 I100:DO100 I112:DO112 I124:AW124 I136:AW136 I148:AW148 I160:AW160 I172:AW172 I184:AW184 I196:AW196 I208:AW208 I220:AW220 I232:AW232 I34:DO34 I46:DO46 I58:DO58 I70:DO70 I82:DO82 I94:DO94 I106:DO106 I118:DO118 I130:AW130 I142:AW142 I154:AW154 I166:AW166 I178:AW178 I190:AW190 I202:AW202 I214:AW214 I226:AW226">
+  <conditionalFormatting sqref="I16:DO16 I22:DO22 I28:DO28 I40:DO40 I52:DO52 I64:DO64 I76:DO76 I88:DO88 I100:DO100 I112:DO112 I124:EI124 I136:EI136 I148:AW148 I160:AW160 I172:AW172 I184:AW184 I196:AW196 I208:AW208 I220:AW220 I232:AW232 I34:DO34 I46:DO46 I58:DO58 I70:DO70 I82:DO82 I94:DO94 I106:DO106 I118:DO118 I130:EI130 I142:EI142 I154:AW154 I166:AW166 I178:AW178 I190:AW190 I202:AW202 I214:AW214 I226:AW226">
     <cfRule type="expression" dxfId="2" priority="496">
       <formula>AND($E15="计划时间",I$14&gt;=$F15,I$14&lt;=$G15)</formula>
     </cfRule>
@@ -28175,7 +30520,7 @@
       <formula>AND($E18="实际完成",AW$14&gt;=$F18,AW$14&lt;=$G18)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I229:AW229 I25:DO25 I31:DO31 I43:DO43 I55:DO55 I67:DO67 I79:DO79 I91:DO91 I103:DO103 I115:DO115 I127:AW127 I139:AW139 I151:AW151 I163:AW163 I175:AW175 I187:AW187 I199:AW199 I211:AW211 I223:AW223 I235:AW235 I37:DO37 I49:DO49 I61:DO61 I73:DO73 I85:DO85 I97:DO97 I109:DO109 I121:DO121 I133:AW133 I145:AW145 I157:AW157 I169:AW169 I181:AW181 I193:AW193 I205:AW205 I217:AW217 I19:AV19">
+  <conditionalFormatting sqref="I229:AW229 I25:DO25 I31:DO31 I43:DO43 I55:DO55 I67:DO67 I79:DO79 I91:DO91 I103:DO103 I115:DO115 I127:EI127 I139:EI139 I151:AW151 I163:AW163 I175:AW175 I187:AW187 I199:AW199 I211:AW211 I223:AW223 I235:AW235 I37:DO37 I49:DO49 I61:DO61 I73:DO73 I85:DO85 I97:DO97 I109:DO109 I121:DO121 I133:EI133 I145:EI145 I157:AW157 I169:AW169 I181:AW181 I193:AW193 I205:AW205 I217:AW217 I19:AV19">
     <cfRule type="expression" dxfId="3" priority="495">
       <formula>AND($E18="实际完成",I$14&gt;=$F18,I$14&lt;=$G18)</formula>
     </cfRule>
@@ -28233,21 +30578,21 @@
   <sheetData>
     <row r="2" ht="28.95" customHeight="1" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:5">
